--- a/lib/desc.xlsx
+++ b/lib/desc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zou/Pictures/hp/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D375E123-C466-064F-9E6C-C0BB918C0ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317218FE-4D92-024C-BF0D-E5AD9B8CB93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="28160" windowHeight="17500" xr2:uid="{D7964F23-ABE7-EE49-BC5D-F06BE24455A7}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">desc!$A$1:$E$485</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">desc!$A$1:$E$483</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="704">
   <si>
     <t>Column1</t>
   </si>
@@ -1866,9 +1866,6 @@
     <t>img/230318_006.jpeg</t>
   </si>
   <si>
-    <t>img/230318_007.jpeg</t>
-  </si>
-  <si>
     <t>img/230318_008.jpeg</t>
   </si>
   <si>
@@ -1920,9 +1917,6 @@
     <t>img/230318_024.jpeg</t>
   </si>
   <si>
-    <t>img/230319_001.jpeg</t>
-  </si>
-  <si>
     <t>img/230319_002.jpeg</t>
   </si>
   <si>
@@ -2064,9 +2058,6 @@
     <t>三陸鉄道久慈駅 @ 岩手 230318</t>
   </si>
   <si>
-    <t>小袖海岸線バス車内 @ 岩手 230318</t>
-  </si>
-  <si>
     <t>袖が浜漁協（あまちゃん） @ 岩手 230318</t>
   </si>
   <si>
@@ -2103,9 +2094,6 @@
     <t>盛岡駅前食堂 @ 岩手 230318</t>
   </si>
   <si>
-    <t>岩手山 @ 岩手 230319</t>
-  </si>
-  <si>
     <t>盛岡じゃじゃ麺弁当 @ 岩手 230319</t>
   </si>
   <si>
@@ -2146,10 +2134,6 @@
   </si>
   <si>
     <t>天地豊作 @ 新潟 230320</t>
-  </si>
-  <si>
-    <t>New!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>img/230321_001.jpeg</t>
@@ -2446,7 +2430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2457,6 +2441,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2491,7 +2478,7 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{651F2A5B-D8C8-924F-B251-5FDA81CA7BB8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="19">
+  <queryTableRefresh nextId="24">
     <queryTableFields count="5">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
@@ -2504,10 +2491,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDC279BC-F0B4-DB41-B43F-5ADB32EFCD14}" name="desc" displayName="desc" ref="A1:E485" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E485" xr:uid="{FDC279BC-F0B4-DB41-B43F-5ADB32EFCD14}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E484">
-    <sortCondition ref="E1:E484"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDC279BC-F0B4-DB41-B43F-5ADB32EFCD14}" name="desc" displayName="desc" ref="A1:E483" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E483" xr:uid="{FDC279BC-F0B4-DB41-B43F-5ADB32EFCD14}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E482">
+    <sortCondition ref="E1:E482"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EC589E23-143C-AD47-82A4-F24CABCA7607}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
@@ -2817,10 +2804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE225AC4-BA89-0F42-99D5-DB6EB635AE5D}">
-  <dimension ref="A1:E484"/>
+  <dimension ref="A1:E482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2850,2413 +2837,2413 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>230317</v>
+        <v>221117</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>658</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>582</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>230317</v>
+        <v>221117</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>659</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>583</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>230317</v>
+        <v>221117</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>659</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>584</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>230317</v>
+        <v>221117</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>659</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>585</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>230317</v>
+        <v>221117</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>659</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>586</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>230317</v>
+        <v>221117</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>659</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>587</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>230317</v>
+        <v>221117</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>660</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>588</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>230317</v>
+        <v>221117</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>660</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>589</v>
+        <v>188</v>
       </c>
       <c r="E9" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>230317</v>
+        <v>221117</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>661</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>590</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>230317</v>
+        <v>221117</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>661</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>591</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>230317</v>
+        <v>221117</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>661</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>592</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>230317</v>
+        <v>221117</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>662</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>593</v>
+        <v>192</v>
       </c>
       <c r="E13" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>230317</v>
+        <v>221117</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>663</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>594</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>230317</v>
+        <v>221117</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>664</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>595</v>
+        <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>230317</v>
+        <v>221118</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>664</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>596</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>230318</v>
+        <v>221118</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>665</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>597</v>
+        <v>196</v>
       </c>
       <c r="E17" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>230318</v>
+        <v>221118</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>666</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>598</v>
+        <v>197</v>
       </c>
       <c r="E18" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>230318</v>
+        <v>221118</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>667</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>599</v>
+        <v>198</v>
       </c>
       <c r="E19" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>230318</v>
+        <v>221118</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>667</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>600</v>
+        <v>199</v>
       </c>
       <c r="E20" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>230318</v>
+        <v>221118</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>668</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>601</v>
+        <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>668</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>602</v>
+        <v>201</v>
       </c>
       <c r="E22" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>669</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>603</v>
+        <v>202</v>
       </c>
       <c r="E23" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>670</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>604</v>
+        <v>203</v>
       </c>
       <c r="E24" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>671</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>605</v>
+        <v>204</v>
       </c>
       <c r="E25" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>672</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>606</v>
+        <v>205</v>
       </c>
       <c r="E26" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>671</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>607</v>
+        <v>206</v>
       </c>
       <c r="E27" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>673</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>608</v>
+        <v>207</v>
       </c>
       <c r="E28" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>674</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>609</v>
+        <v>208</v>
       </c>
       <c r="E29" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>675</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>610</v>
+        <v>209</v>
       </c>
       <c r="E30" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>676</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>611</v>
+        <v>210</v>
       </c>
       <c r="E31" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>677</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>612</v>
+        <v>211</v>
       </c>
       <c r="E32" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>678</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>613</v>
+        <v>212</v>
       </c>
       <c r="E33" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>679</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>614</v>
+        <v>213</v>
       </c>
       <c r="E34" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>668</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>615</v>
+        <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>680</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>616</v>
+        <v>215</v>
       </c>
       <c r="E36" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>681</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>617</v>
+        <v>216</v>
       </c>
       <c r="E37" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>681</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>618</v>
+        <v>217</v>
       </c>
       <c r="E38" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>681</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>619</v>
+        <v>218</v>
       </c>
       <c r="E39" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>230318</v>
+        <v>221119</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>681</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>620</v>
+        <v>219</v>
       </c>
       <c r="E40" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>230319</v>
+        <v>221119</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>682</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>621</v>
+        <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>230319</v>
+        <v>221120</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>683</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>622</v>
+        <v>221</v>
       </c>
       <c r="E42" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>230319</v>
+        <v>221120</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>683</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>623</v>
+        <v>222</v>
       </c>
       <c r="E43" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>230319</v>
+        <v>221120</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>684</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>624</v>
+        <v>223</v>
       </c>
       <c r="E44" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>230319</v>
+        <v>221120</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>685</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>625</v>
+        <v>224</v>
       </c>
       <c r="E45" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>230319</v>
+        <v>221120</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>686</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>626</v>
+        <v>225</v>
       </c>
       <c r="E46" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>230319</v>
+        <v>221120</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>685</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>627</v>
+        <v>226</v>
       </c>
       <c r="E47" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>230319</v>
+        <v>221120</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>687</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>628</v>
+        <v>227</v>
       </c>
       <c r="E48" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>230319</v>
+        <v>221120</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>685</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>629</v>
+        <v>228</v>
       </c>
       <c r="E49" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>230319</v>
+        <v>221120</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>688</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>630</v>
+        <v>229</v>
       </c>
       <c r="E50" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>230319</v>
+        <v>221120</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>689</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>631</v>
+        <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>230319</v>
+        <v>221120</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>689</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>632</v>
+        <v>231</v>
       </c>
       <c r="E52" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>230319</v>
+        <v>221120</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>689</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>633</v>
+        <v>232</v>
       </c>
       <c r="E53" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>230319</v>
+        <v>221121</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>689</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>634</v>
+        <v>233</v>
       </c>
       <c r="E54" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>230319</v>
+        <v>221121</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>689</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>635</v>
+        <v>234</v>
       </c>
       <c r="E55" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>230319</v>
+        <v>221121</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>689</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>636</v>
+        <v>235</v>
       </c>
       <c r="E56" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>230319</v>
+        <v>221121</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>689</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>637</v>
+        <v>236</v>
       </c>
       <c r="E57" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>230319</v>
+        <v>221121</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>689</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>638</v>
+        <v>237</v>
       </c>
       <c r="E58" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>230319</v>
+        <v>221121</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>689</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>639</v>
+        <v>238</v>
       </c>
       <c r="E59" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>230319</v>
+        <v>221121</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>689</v>
+        <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>640</v>
+        <v>239</v>
       </c>
       <c r="E60" t="s">
-        <v>697</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>230319</v>
+        <v>220609</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>690</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>641</v>
+        <v>240</v>
       </c>
       <c r="E61" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>230319</v>
+        <v>221118</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>690</v>
+        <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>642</v>
+        <v>241</v>
       </c>
       <c r="E62" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>230319</v>
+        <v>221118</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>690</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>643</v>
+        <v>242</v>
       </c>
       <c r="E63" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>230319</v>
+        <v>221118</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>690</v>
+        <v>50</v>
       </c>
       <c r="D64" t="s">
-        <v>644</v>
+        <v>243</v>
       </c>
       <c r="E64" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>230320</v>
+        <v>221118</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>691</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>645</v>
+        <v>244</v>
       </c>
       <c r="E65" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>230320</v>
+        <v>221118</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>691</v>
+        <v>52</v>
       </c>
       <c r="D66" t="s">
-        <v>646</v>
+        <v>245</v>
       </c>
       <c r="E66" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>230320</v>
+        <v>221118</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>691</v>
+        <v>52</v>
       </c>
       <c r="D67" t="s">
-        <v>647</v>
+        <v>246</v>
       </c>
       <c r="E67" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>230320</v>
+        <v>221118</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>692</v>
+        <v>52</v>
       </c>
       <c r="D68" t="s">
-        <v>648</v>
+        <v>247</v>
       </c>
       <c r="E68" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>230320</v>
+        <v>221118</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>693</v>
+        <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>649</v>
+        <v>248</v>
       </c>
       <c r="E69" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>230320</v>
+        <v>221118</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>693</v>
+        <v>53</v>
       </c>
       <c r="D70" t="s">
-        <v>650</v>
+        <v>249</v>
       </c>
       <c r="E70" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>230320</v>
+        <v>221118</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>694</v>
+        <v>54</v>
       </c>
       <c r="D71" t="s">
-        <v>651</v>
+        <v>250</v>
       </c>
       <c r="E71" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>230320</v>
+        <v>221118</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>694</v>
+        <v>55</v>
       </c>
       <c r="D72" t="s">
-        <v>652</v>
+        <v>251</v>
       </c>
       <c r="E72" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>230320</v>
+        <v>221118</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>695</v>
+        <v>56</v>
       </c>
       <c r="D73" t="s">
-        <v>653</v>
+        <v>252</v>
       </c>
       <c r="E73" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>230320</v>
+        <v>221118</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>695</v>
+        <v>56</v>
       </c>
       <c r="D74" t="s">
-        <v>654</v>
+        <v>253</v>
       </c>
       <c r="E74" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>230320</v>
+        <v>221118</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>694</v>
+        <v>57</v>
       </c>
       <c r="D75" t="s">
-        <v>655</v>
+        <v>254</v>
       </c>
       <c r="E75" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>230320</v>
+        <v>221118</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>696</v>
+        <v>58</v>
       </c>
       <c r="D76" t="s">
-        <v>656</v>
+        <v>255</v>
       </c>
       <c r="E76" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>230320</v>
+        <v>221118</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>696</v>
+        <v>58</v>
       </c>
       <c r="D77" t="s">
-        <v>657</v>
+        <v>256</v>
       </c>
       <c r="E77" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>230321</v>
+        <v>230317</v>
       </c>
       <c r="B78">
         <v>77</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>704</v>
+      <c r="C78" t="s">
+        <v>658</v>
       </c>
       <c r="D78" t="s">
-        <v>698</v>
+        <v>588</v>
       </c>
       <c r="E78" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>230321</v>
+        <v>230317</v>
       </c>
       <c r="B79">
         <v>78</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>705</v>
+      <c r="C79" t="s">
+        <v>658</v>
       </c>
       <c r="D79" t="s">
-        <v>699</v>
+        <v>589</v>
       </c>
       <c r="E79" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>230321</v>
+        <v>230317</v>
       </c>
       <c r="B80">
         <v>79</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>706</v>
+      <c r="C80" t="s">
+        <v>659</v>
       </c>
       <c r="D80" t="s">
-        <v>700</v>
+        <v>590</v>
       </c>
       <c r="E80" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>230321</v>
+        <v>230317</v>
       </c>
       <c r="B81">
         <v>80</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>707</v>
+      <c r="C81" t="s">
+        <v>659</v>
       </c>
       <c r="D81" t="s">
-        <v>701</v>
+        <v>591</v>
       </c>
       <c r="E81" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>230321</v>
+        <v>230317</v>
       </c>
       <c r="B82">
         <v>81</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>708</v>
+      <c r="C82" t="s">
+        <v>659</v>
       </c>
       <c r="D82" t="s">
-        <v>702</v>
+        <v>592</v>
       </c>
       <c r="E82" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>230321</v>
+        <v>230317</v>
       </c>
       <c r="B83">
         <v>82</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>708</v>
+      <c r="C83" t="s">
+        <v>660</v>
       </c>
       <c r="D83" t="s">
-        <v>703</v>
+        <v>593</v>
       </c>
       <c r="E83" t="s">
-        <v>697</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>221117</v>
+        <v>230317</v>
       </c>
       <c r="B84">
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>661</v>
       </c>
       <c r="D84" t="s">
-        <v>181</v>
+        <v>594</v>
       </c>
       <c r="E84" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>221117</v>
+        <v>230317</v>
       </c>
       <c r="B85">
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>595</v>
       </c>
       <c r="E85" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>221117</v>
+        <v>230317</v>
       </c>
       <c r="B86">
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="D86" t="s">
-        <v>183</v>
+        <v>596</v>
       </c>
       <c r="E86" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>221117</v>
+        <v>230318</v>
       </c>
       <c r="B87">
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="D87" t="s">
-        <v>184</v>
+        <v>597</v>
       </c>
       <c r="E87" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>221117</v>
+        <v>230318</v>
       </c>
       <c r="B88">
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>66</v>
+        <v>664</v>
       </c>
       <c r="D88" t="s">
-        <v>185</v>
+        <v>598</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>221117</v>
+        <v>230318</v>
       </c>
       <c r="B89">
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>66</v>
+        <v>676</v>
       </c>
       <c r="D89" t="s">
-        <v>186</v>
+        <v>613</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>221117</v>
+        <v>230318</v>
       </c>
       <c r="B90">
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>66</v>
+        <v>665</v>
       </c>
       <c r="D90" t="s">
-        <v>187</v>
+        <v>599</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>221117</v>
+        <v>230318</v>
       </c>
       <c r="B91">
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>66</v>
+        <v>665</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
+        <v>600</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>221117</v>
+        <v>230318</v>
       </c>
       <c r="B92">
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>66</v>
+        <v>666</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>601</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>221117</v>
+        <v>230318</v>
       </c>
       <c r="B93">
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>67</v>
+        <v>666</v>
       </c>
       <c r="D93" t="s">
-        <v>190</v>
+        <v>602</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>221117</v>
+        <v>230318</v>
       </c>
       <c r="B94">
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>67</v>
+        <v>667</v>
       </c>
       <c r="D94" t="s">
-        <v>191</v>
+        <v>603</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>221117</v>
+        <v>230318</v>
       </c>
       <c r="B95">
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>68</v>
+        <v>668</v>
       </c>
       <c r="D95" t="s">
-        <v>192</v>
+        <v>604</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>221117</v>
+        <v>230318</v>
       </c>
       <c r="B96">
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>69</v>
+        <v>668</v>
       </c>
       <c r="D96" t="s">
-        <v>193</v>
+        <v>606</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97">
-        <v>221117</v>
+      <c r="A97" s="4">
+        <v>230318</v>
       </c>
       <c r="B97">
         <v>96</v>
       </c>
-      <c r="C97" t="s">
-        <v>69</v>
-      </c>
-      <c r="D97" t="s">
-        <v>194</v>
-      </c>
-      <c r="E97" t="s">
-        <v>175</v>
+      <c r="C97" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>221118</v>
+        <v>230318</v>
       </c>
       <c r="B98">
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>59</v>
+        <v>670</v>
       </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>607</v>
       </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>221118</v>
+        <v>230318</v>
       </c>
       <c r="B99">
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>60</v>
+        <v>671</v>
       </c>
       <c r="D99" t="s">
-        <v>196</v>
+        <v>608</v>
       </c>
       <c r="E99" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>221118</v>
+        <v>230318</v>
       </c>
       <c r="B100">
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>61</v>
+        <v>672</v>
       </c>
       <c r="D100" t="s">
-        <v>197</v>
+        <v>609</v>
       </c>
       <c r="E100" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>221118</v>
+        <v>230318</v>
       </c>
       <c r="B101">
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>62</v>
+        <v>673</v>
       </c>
       <c r="D101" t="s">
-        <v>198</v>
+        <v>610</v>
       </c>
       <c r="E101" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>221118</v>
+        <v>230318</v>
       </c>
       <c r="B102">
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>62</v>
+        <v>674</v>
       </c>
       <c r="D102" t="s">
-        <v>199</v>
+        <v>611</v>
       </c>
       <c r="E102" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>221118</v>
+        <v>230318</v>
       </c>
       <c r="B103">
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>63</v>
+        <v>675</v>
       </c>
       <c r="D103" t="s">
-        <v>200</v>
+        <v>612</v>
       </c>
       <c r="E103" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>221119</v>
+        <v>230318</v>
       </c>
       <c r="B104">
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>666</v>
       </c>
       <c r="D104" t="s">
-        <v>201</v>
+        <v>614</v>
       </c>
       <c r="E104" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>221119</v>
+        <v>230318</v>
       </c>
       <c r="B105">
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>39</v>
+        <v>677</v>
       </c>
       <c r="D105" t="s">
-        <v>202</v>
+        <v>615</v>
       </c>
       <c r="E105" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>221119</v>
+        <v>230318</v>
       </c>
       <c r="B106">
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>40</v>
+        <v>678</v>
       </c>
       <c r="D106" t="s">
-        <v>203</v>
+        <v>616</v>
       </c>
       <c r="E106" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>221119</v>
+        <v>230318</v>
       </c>
       <c r="B107">
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>678</v>
       </c>
       <c r="D107" t="s">
-        <v>204</v>
+        <v>617</v>
       </c>
       <c r="E107" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>221119</v>
+        <v>230318</v>
       </c>
       <c r="B108">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>41</v>
+        <v>678</v>
       </c>
       <c r="D108" t="s">
-        <v>205</v>
+        <v>618</v>
       </c>
       <c r="E108" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>221119</v>
+        <v>230318</v>
       </c>
       <c r="B109">
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>41</v>
+        <v>678</v>
       </c>
       <c r="D109" t="s">
-        <v>206</v>
+        <v>619</v>
       </c>
       <c r="E109" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>221119</v>
+        <v>230319</v>
       </c>
       <c r="B110">
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
+        <v>679</v>
       </c>
       <c r="D110" t="s">
-        <v>207</v>
+        <v>620</v>
       </c>
       <c r="E110" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>221119</v>
+        <v>230319</v>
       </c>
       <c r="B111">
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>41</v>
+        <v>679</v>
       </c>
       <c r="D111" t="s">
-        <v>208</v>
+        <v>621</v>
       </c>
       <c r="E111" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>221119</v>
+        <v>230319</v>
       </c>
       <c r="B112">
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>41</v>
+        <v>680</v>
       </c>
       <c r="D112" t="s">
-        <v>209</v>
+        <v>622</v>
       </c>
       <c r="E112" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>221119</v>
+        <v>230319</v>
       </c>
       <c r="B113">
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>41</v>
+        <v>681</v>
       </c>
       <c r="D113" t="s">
-        <v>210</v>
+        <v>623</v>
       </c>
       <c r="E113" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>221119</v>
+        <v>230319</v>
       </c>
       <c r="B114">
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>42</v>
+        <v>682</v>
       </c>
       <c r="D114" t="s">
-        <v>211</v>
+        <v>624</v>
       </c>
       <c r="E114" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>221119</v>
+        <v>230319</v>
       </c>
       <c r="B115">
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>43</v>
+        <v>681</v>
       </c>
       <c r="D115" t="s">
-        <v>212</v>
+        <v>625</v>
       </c>
       <c r="E115" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>221119</v>
+        <v>230319</v>
       </c>
       <c r="B116">
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>43</v>
+        <v>683</v>
       </c>
       <c r="D116" t="s">
-        <v>213</v>
+        <v>626</v>
       </c>
       <c r="E116" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>221119</v>
+        <v>230319</v>
       </c>
       <c r="B117">
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>44</v>
+        <v>681</v>
       </c>
       <c r="D117" t="s">
-        <v>214</v>
+        <v>627</v>
       </c>
       <c r="E117" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>221119</v>
+        <v>230319</v>
       </c>
       <c r="B118">
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>44</v>
+        <v>684</v>
       </c>
       <c r="D118" t="s">
-        <v>215</v>
+        <v>628</v>
       </c>
       <c r="E118" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>221119</v>
+        <v>230319</v>
       </c>
       <c r="B119">
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>45</v>
+        <v>685</v>
       </c>
       <c r="D119" t="s">
-        <v>216</v>
+        <v>631</v>
       </c>
       <c r="E119" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>221119</v>
+        <v>230319</v>
       </c>
       <c r="B120">
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>685</v>
       </c>
       <c r="D120" t="s">
-        <v>217</v>
+        <v>629</v>
       </c>
       <c r="E120" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>221119</v>
+        <v>230319</v>
       </c>
       <c r="B121">
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>46</v>
+        <v>685</v>
       </c>
       <c r="D121" t="s">
-        <v>218</v>
+        <v>630</v>
       </c>
       <c r="E121" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>221119</v>
+        <v>230319</v>
       </c>
       <c r="B122">
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>46</v>
+        <v>685</v>
       </c>
       <c r="D122" t="s">
-        <v>219</v>
+        <v>632</v>
       </c>
       <c r="E122" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>221119</v>
+        <v>230319</v>
       </c>
       <c r="B123">
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>47</v>
+        <v>685</v>
       </c>
       <c r="D123" t="s">
-        <v>220</v>
+        <v>633</v>
       </c>
       <c r="E123" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>221120</v>
+        <v>230319</v>
       </c>
       <c r="B124">
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>685</v>
       </c>
       <c r="D124" t="s">
-        <v>221</v>
+        <v>634</v>
       </c>
       <c r="E124" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>221120</v>
+        <v>230319</v>
       </c>
       <c r="B125">
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>685</v>
       </c>
       <c r="D125" t="s">
-        <v>222</v>
+        <v>635</v>
       </c>
       <c r="E125" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>221120</v>
+        <v>230319</v>
       </c>
       <c r="B126">
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>685</v>
       </c>
       <c r="D126" t="s">
-        <v>223</v>
+        <v>636</v>
       </c>
       <c r="E126" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>221120</v>
+        <v>230319</v>
       </c>
       <c r="B127">
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>685</v>
       </c>
       <c r="D127" t="s">
-        <v>224</v>
+        <v>637</v>
       </c>
       <c r="E127" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>221120</v>
+        <v>230319</v>
       </c>
       <c r="B128">
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>685</v>
       </c>
       <c r="D128" t="s">
-        <v>225</v>
+        <v>638</v>
       </c>
       <c r="E128" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>221120</v>
+        <v>230319</v>
       </c>
       <c r="B129">
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>686</v>
       </c>
       <c r="D129" t="s">
-        <v>226</v>
+        <v>639</v>
       </c>
       <c r="E129" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>221120</v>
+        <v>230319</v>
       </c>
       <c r="B130">
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>686</v>
       </c>
       <c r="D130" t="s">
-        <v>227</v>
+        <v>640</v>
       </c>
       <c r="E130" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>221120</v>
+        <v>230319</v>
       </c>
       <c r="B131">
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>686</v>
       </c>
       <c r="D131" t="s">
-        <v>228</v>
+        <v>641</v>
       </c>
       <c r="E131" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>221120</v>
+        <v>230319</v>
       </c>
       <c r="B132">
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>686</v>
       </c>
       <c r="D132" t="s">
-        <v>229</v>
+        <v>642</v>
       </c>
       <c r="E132" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>221120</v>
+        <v>230320</v>
       </c>
       <c r="B133">
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>687</v>
       </c>
       <c r="D133" t="s">
-        <v>230</v>
+        <v>643</v>
       </c>
       <c r="E133" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>221120</v>
+        <v>230320</v>
       </c>
       <c r="B134">
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>37</v>
+        <v>687</v>
       </c>
       <c r="D134" t="s">
-        <v>231</v>
+        <v>644</v>
       </c>
       <c r="E134" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>221120</v>
+        <v>230320</v>
       </c>
       <c r="B135">
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>37</v>
+        <v>687</v>
       </c>
       <c r="D135" t="s">
-        <v>232</v>
+        <v>645</v>
       </c>
       <c r="E135" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>221121</v>
+        <v>230320</v>
       </c>
       <c r="B136">
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>23</v>
+        <v>688</v>
       </c>
       <c r="D136" t="s">
-        <v>233</v>
+        <v>646</v>
       </c>
       <c r="E136" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>221121</v>
+        <v>230320</v>
       </c>
       <c r="B137">
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>24</v>
+        <v>689</v>
       </c>
       <c r="D137" t="s">
-        <v>234</v>
+        <v>647</v>
       </c>
       <c r="E137" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>221121</v>
+        <v>230320</v>
       </c>
       <c r="B138">
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>689</v>
       </c>
       <c r="D138" t="s">
-        <v>235</v>
+        <v>648</v>
       </c>
       <c r="E138" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>221121</v>
+        <v>230320</v>
       </c>
       <c r="B139">
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>26</v>
+        <v>690</v>
       </c>
       <c r="D139" t="s">
-        <v>236</v>
+        <v>649</v>
       </c>
       <c r="E139" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>221121</v>
+        <v>230320</v>
       </c>
       <c r="B140">
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>690</v>
       </c>
       <c r="D140" t="s">
-        <v>237</v>
+        <v>650</v>
       </c>
       <c r="E140" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>221121</v>
+        <v>230320</v>
       </c>
       <c r="B141">
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>691</v>
       </c>
       <c r="D141" t="s">
-        <v>238</v>
+        <v>651</v>
       </c>
       <c r="E141" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>221121</v>
+        <v>230320</v>
       </c>
       <c r="B142">
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>691</v>
       </c>
       <c r="D142" t="s">
-        <v>239</v>
+        <v>652</v>
       </c>
       <c r="E142" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>220609</v>
+        <v>230320</v>
       </c>
       <c r="B143">
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>137</v>
+        <v>690</v>
       </c>
       <c r="D143" t="s">
-        <v>240</v>
+        <v>653</v>
       </c>
       <c r="E143" t="s">
         <v>180</v>
@@ -5264,288 +5251,288 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>221118</v>
+        <v>211123</v>
       </c>
       <c r="B144">
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D144" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E144" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>221118</v>
+        <v>211123</v>
       </c>
       <c r="B145">
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="D145" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="E145" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>221118</v>
+        <v>220823</v>
       </c>
       <c r="B146">
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="D146" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="E146" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>221118</v>
+        <v>220823</v>
       </c>
       <c r="B147">
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="D147" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E147" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>221118</v>
+        <v>220823</v>
       </c>
       <c r="B148">
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="D148" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E148" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>221118</v>
+        <v>220823</v>
       </c>
       <c r="B149">
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="D149" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="E149" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>221118</v>
+        <v>220823</v>
       </c>
       <c r="B150">
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="D150" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E150" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>221118</v>
+        <v>220823</v>
       </c>
       <c r="B151">
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="D151" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="E151" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>221118</v>
+        <v>221115</v>
       </c>
       <c r="B152">
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D152" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="E152" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>221118</v>
+        <v>221115</v>
       </c>
       <c r="B153">
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D153" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="E153" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>221118</v>
+        <v>221115</v>
       </c>
       <c r="B154">
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D154" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="E154" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>221118</v>
+        <v>221117</v>
       </c>
       <c r="B155">
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D155" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="E155" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>221118</v>
+        <v>221129</v>
       </c>
       <c r="B156">
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D156" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="E156" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>221118</v>
+        <v>221129</v>
       </c>
       <c r="B157">
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D157" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="E157" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>221118</v>
+        <v>221129</v>
       </c>
       <c r="B158">
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D158" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="E158" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>221118</v>
+        <v>221129</v>
       </c>
       <c r="B159">
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D159" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="E159" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>211123</v>
+        <v>221129</v>
       </c>
       <c r="B160">
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="D160" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E160" t="s">
         <v>174</v>
@@ -5553,16 +5540,16 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>211123</v>
+        <v>221129</v>
       </c>
       <c r="B161">
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="D161" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="E161" t="s">
         <v>174</v>
@@ -5570,16 +5557,16 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>220823</v>
+        <v>221201</v>
       </c>
       <c r="B162">
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="E162" t="s">
         <v>174</v>
@@ -5587,16 +5574,16 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>220823</v>
+        <v>221201</v>
       </c>
       <c r="B163">
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="D163" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="E163" t="s">
         <v>174</v>
@@ -5604,16 +5591,16 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>220823</v>
+        <v>221201</v>
       </c>
       <c r="B164">
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="D164" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="E164" t="s">
         <v>174</v>
@@ -5621,16 +5608,16 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>220823</v>
+        <v>221201</v>
       </c>
       <c r="B165">
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="D165" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="E165" t="s">
         <v>174</v>
@@ -5638,16 +5625,16 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>220823</v>
+        <v>221201</v>
       </c>
       <c r="B166">
         <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="D166" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="E166" t="s">
         <v>174</v>
@@ -5655,16 +5642,16 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>220823</v>
+        <v>221201</v>
       </c>
       <c r="B167">
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="D167" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="E167" t="s">
         <v>174</v>
@@ -5672,16 +5659,16 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>221115</v>
+        <v>221201</v>
       </c>
       <c r="B168">
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D168" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="E168" t="s">
         <v>174</v>
@@ -5689,16 +5676,16 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>221115</v>
+        <v>221201</v>
       </c>
       <c r="B169">
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D169" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="E169" t="s">
         <v>174</v>
@@ -5706,16 +5693,16 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
-        <v>221115</v>
+        <v>221201</v>
       </c>
       <c r="B170">
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="D170" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="E170" t="s">
         <v>174</v>
@@ -5723,16 +5710,16 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>221117</v>
+        <v>221201</v>
       </c>
       <c r="B171">
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D171" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="E171" t="s">
         <v>174</v>
@@ -5740,16 +5727,16 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>221129</v>
+        <v>221201</v>
       </c>
       <c r="B172">
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D172" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="E172" t="s">
         <v>174</v>
@@ -5757,16 +5744,16 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>221129</v>
+        <v>221201</v>
       </c>
       <c r="B173">
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D173" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="E173" t="s">
         <v>174</v>
@@ -5774,16 +5761,16 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>221129</v>
+        <v>221201</v>
       </c>
       <c r="B174">
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D174" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="E174" t="s">
         <v>174</v>
@@ -5791,16 +5778,16 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>221129</v>
+        <v>221201</v>
       </c>
       <c r="B175">
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D175" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="E175" t="s">
         <v>174</v>
@@ -5808,16 +5795,16 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>221129</v>
+        <v>221201</v>
       </c>
       <c r="B176">
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="E176" t="s">
         <v>174</v>
@@ -5825,16 +5812,16 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>221129</v>
+        <v>221201</v>
       </c>
       <c r="B177">
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D177" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="E177" t="s">
         <v>174</v>
@@ -5848,10 +5835,10 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D178" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="E178" t="s">
         <v>174</v>
@@ -5865,10 +5852,10 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D179" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="E179" t="s">
         <v>174</v>
@@ -5882,10 +5869,10 @@
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D180" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="E180" t="s">
         <v>174</v>
@@ -5899,10 +5886,10 @@
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D181" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="E181" t="s">
         <v>174</v>
@@ -5910,16 +5897,16 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B182">
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D182" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="E182" t="s">
         <v>174</v>
@@ -5927,16 +5914,16 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B183">
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D183" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="E183" t="s">
         <v>174</v>
@@ -5944,16 +5931,16 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B184">
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D184" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="E184" t="s">
         <v>174</v>
@@ -5961,16 +5948,16 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B185">
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D185" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="E185" t="s">
         <v>174</v>
@@ -5978,16 +5965,16 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B186">
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="E186" t="s">
         <v>174</v>
@@ -5995,16 +5982,16 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B187">
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E187" t="s">
         <v>174</v>
@@ -6012,16 +5999,16 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B188">
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D188" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="E188" t="s">
         <v>174</v>
@@ -6029,16 +6016,16 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B189">
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="E189" t="s">
         <v>174</v>
@@ -6046,16 +6033,16 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B190">
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D190" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="E190" t="s">
         <v>174</v>
@@ -6063,16 +6050,16 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B191">
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D191" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="E191" t="s">
         <v>174</v>
@@ -6080,16 +6067,16 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B192">
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D192" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="E192" t="s">
         <v>174</v>
@@ -6097,16 +6084,16 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B193">
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="E193" t="s">
         <v>174</v>
@@ -6114,16 +6101,16 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B194">
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D194" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="E194" t="s">
         <v>174</v>
@@ -6131,16 +6118,16 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B195">
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="E195" t="s">
         <v>174</v>
@@ -6148,16 +6135,16 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>221201</v>
+        <v>221202</v>
       </c>
       <c r="B196">
         <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D196" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="E196" t="s">
         <v>174</v>
@@ -6165,288 +6152,288 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>221201</v>
+        <v>200321</v>
       </c>
       <c r="B197">
         <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="D197" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E197" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>221202</v>
+        <v>200321</v>
       </c>
       <c r="B198">
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="D198" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="E198" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>221202</v>
+        <v>200321</v>
       </c>
       <c r="B199">
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="D199" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="E199" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>221202</v>
+        <v>200321</v>
       </c>
       <c r="B200">
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="D200" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="E200" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>221202</v>
+        <v>200321</v>
       </c>
       <c r="B201">
         <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D201" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="E201" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202">
-        <v>221202</v>
+        <v>200321</v>
       </c>
       <c r="B202">
         <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D202" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="E202" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>221202</v>
+        <v>200321</v>
       </c>
       <c r="B203">
         <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="D203" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="E203" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>221202</v>
+        <v>200321</v>
       </c>
       <c r="B204">
         <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="D204" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="E204" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
-        <v>221202</v>
+        <v>200321</v>
       </c>
       <c r="B205">
         <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="D205" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="E205" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>221202</v>
+        <v>200325</v>
       </c>
       <c r="B206">
         <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="D206" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E206" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>221202</v>
+        <v>200621</v>
       </c>
       <c r="B207">
         <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="D207" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="E207" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>221202</v>
+        <v>200621</v>
       </c>
       <c r="B208">
         <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="D208" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="E208" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
-        <v>221202</v>
+        <v>200621</v>
       </c>
       <c r="B209">
         <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="D209" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="E209" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>221202</v>
+        <v>200621</v>
       </c>
       <c r="B210">
         <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="D210" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="E210" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>221202</v>
+        <v>200621</v>
       </c>
       <c r="B211">
         <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="D211" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="E211" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>221202</v>
+        <v>200621</v>
       </c>
       <c r="B212">
         <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="D212" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="E212" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>200321</v>
+        <v>200621</v>
       </c>
       <c r="B213">
         <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D213" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="E213" t="s">
         <v>179</v>
@@ -6454,16 +6441,16 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>200321</v>
+        <v>200712</v>
       </c>
       <c r="B214">
         <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D214" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="E214" t="s">
         <v>179</v>
@@ -6471,16 +6458,16 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>200321</v>
+        <v>200712</v>
       </c>
       <c r="B215">
         <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D215" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="E215" t="s">
         <v>179</v>
@@ -6488,16 +6475,16 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>200321</v>
+        <v>200712</v>
       </c>
       <c r="B216">
         <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D216" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="E216" t="s">
         <v>179</v>
@@ -6505,16 +6492,16 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>200321</v>
+        <v>200712</v>
       </c>
       <c r="B217">
         <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D217" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="E217" t="s">
         <v>179</v>
@@ -6522,16 +6509,16 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>200321</v>
+        <v>200712</v>
       </c>
       <c r="B218">
         <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D218" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E218" t="s">
         <v>179</v>
@@ -6539,16 +6526,16 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>200321</v>
+        <v>200712</v>
       </c>
       <c r="B219">
         <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D219" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="E219" t="s">
         <v>179</v>
@@ -6556,16 +6543,16 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>200321</v>
+        <v>200712</v>
       </c>
       <c r="B220">
         <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D220" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="E220" t="s">
         <v>179</v>
@@ -6573,16 +6560,16 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>200321</v>
+        <v>200712</v>
       </c>
       <c r="B221">
         <v>220</v>
       </c>
       <c r="C221" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D221" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="E221" t="s">
         <v>179</v>
@@ -6590,16 +6577,16 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>200325</v>
+        <v>200718</v>
       </c>
       <c r="B222">
         <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D222" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="E222" t="s">
         <v>179</v>
@@ -6607,16 +6594,16 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>200621</v>
+        <v>200718</v>
       </c>
       <c r="B223">
         <v>222</v>
       </c>
       <c r="C223" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D223" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="E223" t="s">
         <v>179</v>
@@ -6624,16 +6611,16 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224">
-        <v>200621</v>
+        <v>200718</v>
       </c>
       <c r="B224">
         <v>223</v>
       </c>
       <c r="C224" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D224" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="E224" t="s">
         <v>179</v>
@@ -6641,16 +6628,16 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>200621</v>
+        <v>200718</v>
       </c>
       <c r="B225">
         <v>224</v>
       </c>
       <c r="C225" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D225" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="E225" t="s">
         <v>179</v>
@@ -6658,16 +6645,16 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>200621</v>
+        <v>200718</v>
       </c>
       <c r="B226">
         <v>225</v>
       </c>
       <c r="C226" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D226" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="E226" t="s">
         <v>179</v>
@@ -6675,16 +6662,16 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>200621</v>
+        <v>200718</v>
       </c>
       <c r="B227">
         <v>226</v>
       </c>
       <c r="C227" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D227" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="E227" t="s">
         <v>179</v>
@@ -6692,16 +6679,16 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>200621</v>
+        <v>201003</v>
       </c>
       <c r="B228">
         <v>227</v>
       </c>
       <c r="C228" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D228" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="E228" t="s">
         <v>179</v>
@@ -6709,16 +6696,16 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>200621</v>
+        <v>201003</v>
       </c>
       <c r="B229">
         <v>228</v>
       </c>
       <c r="C229" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D229" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="E229" t="s">
         <v>179</v>
@@ -6726,16 +6713,16 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>200712</v>
+        <v>210530</v>
       </c>
       <c r="B230">
         <v>229</v>
       </c>
       <c r="C230" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D230" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="E230" t="s">
         <v>179</v>
@@ -6743,16 +6730,16 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>200712</v>
+        <v>210811</v>
       </c>
       <c r="B231">
         <v>230</v>
       </c>
       <c r="C231" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D231" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="E231" t="s">
         <v>179</v>
@@ -6760,16 +6747,16 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>200712</v>
+        <v>210811</v>
       </c>
       <c r="B232">
         <v>231</v>
       </c>
       <c r="C232" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D232" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="E232" t="s">
         <v>179</v>
@@ -6777,16 +6764,16 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>200712</v>
+        <v>210811</v>
       </c>
       <c r="B233">
         <v>232</v>
       </c>
       <c r="C233" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D233" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="E233" t="s">
         <v>179</v>
@@ -6794,16 +6781,16 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>200712</v>
+        <v>210811</v>
       </c>
       <c r="B234">
         <v>233</v>
       </c>
       <c r="C234" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D234" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="E234" t="s">
         <v>179</v>
@@ -6811,16 +6798,16 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235">
-        <v>200712</v>
+        <v>210811</v>
       </c>
       <c r="B235">
         <v>234</v>
       </c>
       <c r="C235" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D235" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="E235" t="s">
         <v>179</v>
@@ -6828,16 +6815,16 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <v>200712</v>
+        <v>210811</v>
       </c>
       <c r="B236">
         <v>235</v>
       </c>
       <c r="C236" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D236" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="E236" t="s">
         <v>179</v>
@@ -6845,16 +6832,16 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <v>200712</v>
+        <v>210811</v>
       </c>
       <c r="B237">
         <v>236</v>
       </c>
       <c r="C237" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D237" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="E237" t="s">
         <v>179</v>
@@ -6862,16 +6849,16 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <v>200718</v>
+        <v>210811</v>
       </c>
       <c r="B238">
         <v>237</v>
       </c>
       <c r="C238" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D238" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="E238" t="s">
         <v>179</v>
@@ -6879,16 +6866,16 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
-        <v>200718</v>
+        <v>210811</v>
       </c>
       <c r="B239">
         <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D239" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="E239" t="s">
         <v>179</v>
@@ -6896,16 +6883,16 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>200718</v>
+        <v>210811</v>
       </c>
       <c r="B240">
         <v>239</v>
       </c>
       <c r="C240" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D240" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="E240" t="s">
         <v>179</v>
@@ -6913,16 +6900,16 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241">
-        <v>200718</v>
+        <v>210811</v>
       </c>
       <c r="B241">
         <v>240</v>
       </c>
       <c r="C241" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D241" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="E241" t="s">
         <v>179</v>
@@ -6930,16 +6917,16 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242">
-        <v>200718</v>
+        <v>210811</v>
       </c>
       <c r="B242">
         <v>241</v>
       </c>
       <c r="C242" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D242" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="E242" t="s">
         <v>179</v>
@@ -6947,16 +6934,16 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243">
-        <v>200718</v>
+        <v>210811</v>
       </c>
       <c r="B243">
         <v>242</v>
       </c>
       <c r="C243" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D243" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="E243" t="s">
         <v>179</v>
@@ -6964,16 +6951,16 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
-        <v>201003</v>
+        <v>210811</v>
       </c>
       <c r="B244">
         <v>243</v>
       </c>
       <c r="C244" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D244" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="E244" t="s">
         <v>179</v>
@@ -6981,16 +6968,16 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245">
-        <v>201003</v>
+        <v>210811</v>
       </c>
       <c r="B245">
         <v>244</v>
       </c>
       <c r="C245" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D245" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="E245" t="s">
         <v>179</v>
@@ -6998,16 +6985,16 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246">
-        <v>210530</v>
+        <v>210811</v>
       </c>
       <c r="B246">
         <v>245</v>
       </c>
       <c r="C246" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D246" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="E246" t="s">
         <v>179</v>
@@ -7021,10 +7008,10 @@
         <v>246</v>
       </c>
       <c r="C247" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D247" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="E247" t="s">
         <v>179</v>
@@ -7038,10 +7025,10 @@
         <v>247</v>
       </c>
       <c r="C248" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D248" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="E248" t="s">
         <v>179</v>
@@ -7055,10 +7042,10 @@
         <v>248</v>
       </c>
       <c r="C249" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D249" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="E249" t="s">
         <v>179</v>
@@ -7072,10 +7059,10 @@
         <v>249</v>
       </c>
       <c r="C250" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D250" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="E250" t="s">
         <v>179</v>
@@ -7089,10 +7076,10 @@
         <v>250</v>
       </c>
       <c r="C251" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D251" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="E251" t="s">
         <v>179</v>
@@ -7106,10 +7093,10 @@
         <v>251</v>
       </c>
       <c r="C252" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D252" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="E252" t="s">
         <v>179</v>
@@ -7123,10 +7110,10 @@
         <v>252</v>
       </c>
       <c r="C253" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D253" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="E253" t="s">
         <v>179</v>
@@ -7140,10 +7127,10 @@
         <v>253</v>
       </c>
       <c r="C254" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D254" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="E254" t="s">
         <v>179</v>
@@ -7157,10 +7144,10 @@
         <v>254</v>
       </c>
       <c r="C255" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D255" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="E255" t="s">
         <v>179</v>
@@ -7174,10 +7161,10 @@
         <v>255</v>
       </c>
       <c r="C256" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D256" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="E256" t="s">
         <v>179</v>
@@ -7191,10 +7178,10 @@
         <v>256</v>
       </c>
       <c r="C257" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D257" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="E257" t="s">
         <v>179</v>
@@ -7208,10 +7195,10 @@
         <v>257</v>
       </c>
       <c r="C258" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D258" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="E258" t="s">
         <v>179</v>
@@ -7225,10 +7212,10 @@
         <v>258</v>
       </c>
       <c r="C259" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D259" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="E259" t="s">
         <v>179</v>
@@ -7236,16 +7223,16 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260">
-        <v>210811</v>
+        <v>210919</v>
       </c>
       <c r="B260">
         <v>259</v>
       </c>
       <c r="C260" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D260" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E260" t="s">
         <v>179</v>
@@ -7253,16 +7240,16 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261">
-        <v>210811</v>
+        <v>210919</v>
       </c>
       <c r="B261">
         <v>260</v>
       </c>
       <c r="C261" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D261" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="E261" t="s">
         <v>179</v>
@@ -7270,16 +7257,16 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262">
-        <v>210811</v>
+        <v>210919</v>
       </c>
       <c r="B262">
         <v>261</v>
       </c>
       <c r="C262" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D262" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="E262" t="s">
         <v>179</v>
@@ -7287,16 +7274,16 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263">
-        <v>210811</v>
+        <v>210919</v>
       </c>
       <c r="B263">
         <v>262</v>
       </c>
       <c r="C263" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D263" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="E263" t="s">
         <v>179</v>
@@ -7304,16 +7291,16 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264">
-        <v>210811</v>
+        <v>210919</v>
       </c>
       <c r="B264">
         <v>263</v>
       </c>
       <c r="C264" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D264" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="E264" t="s">
         <v>179</v>
@@ -7321,16 +7308,16 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265">
-        <v>210811</v>
+        <v>210919</v>
       </c>
       <c r="B265">
         <v>264</v>
       </c>
       <c r="C265" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D265" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="E265" t="s">
         <v>179</v>
@@ -7338,16 +7325,16 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266">
-        <v>210811</v>
+        <v>210919</v>
       </c>
       <c r="B266">
         <v>265</v>
       </c>
       <c r="C266" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D266" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="E266" t="s">
         <v>179</v>
@@ -7355,16 +7342,16 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267">
-        <v>210811</v>
+        <v>210919</v>
       </c>
       <c r="B267">
         <v>266</v>
       </c>
       <c r="C267" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D267" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="E267" t="s">
         <v>179</v>
@@ -7372,16 +7359,16 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268">
-        <v>210811</v>
+        <v>220428</v>
       </c>
       <c r="B268">
         <v>267</v>
       </c>
       <c r="C268" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D268" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="E268" t="s">
         <v>179</v>
@@ -7389,16 +7376,16 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269">
-        <v>210811</v>
+        <v>220428</v>
       </c>
       <c r="B269">
         <v>268</v>
       </c>
       <c r="C269" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D269" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="E269" t="s">
         <v>179</v>
@@ -7406,16 +7393,16 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270">
-        <v>210811</v>
+        <v>220529</v>
       </c>
       <c r="B270">
         <v>269</v>
       </c>
       <c r="C270" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D270" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="E270" t="s">
         <v>179</v>
@@ -7423,16 +7410,16 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271">
-        <v>210811</v>
+        <v>220529</v>
       </c>
       <c r="B271">
         <v>270</v>
       </c>
       <c r="C271" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D271" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="E271" t="s">
         <v>179</v>
@@ -7440,16 +7427,16 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272">
-        <v>210811</v>
+        <v>220529</v>
       </c>
       <c r="B272">
         <v>271</v>
       </c>
       <c r="C272" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D272" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="E272" t="s">
         <v>179</v>
@@ -7457,16 +7444,16 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273">
-        <v>210811</v>
+        <v>220529</v>
       </c>
       <c r="B273">
         <v>272</v>
       </c>
       <c r="C273" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D273" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="E273" t="s">
         <v>179</v>
@@ -7474,16 +7461,16 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274">
-        <v>210811</v>
+        <v>220529</v>
       </c>
       <c r="B274">
         <v>273</v>
       </c>
       <c r="C274" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D274" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="E274" t="s">
         <v>179</v>
@@ -7491,16 +7478,16 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275">
-        <v>210811</v>
+        <v>220810</v>
       </c>
       <c r="B275">
         <v>274</v>
       </c>
       <c r="C275" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="D275" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="E275" t="s">
         <v>179</v>
@@ -7508,16 +7495,16 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276">
-        <v>210919</v>
+        <v>220810</v>
       </c>
       <c r="B276">
         <v>275</v>
       </c>
       <c r="C276" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="D276" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E276" t="s">
         <v>179</v>
@@ -7525,16 +7512,16 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277">
-        <v>210919</v>
+        <v>220810</v>
       </c>
       <c r="B277">
         <v>276</v>
       </c>
       <c r="C277" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="D277" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="E277" t="s">
         <v>179</v>
@@ -7542,16 +7529,16 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278">
-        <v>210919</v>
+        <v>220810</v>
       </c>
       <c r="B278">
         <v>277</v>
       </c>
       <c r="C278" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="D278" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="E278" t="s">
         <v>179</v>
@@ -7559,16 +7546,16 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279">
-        <v>210919</v>
+        <v>220810</v>
       </c>
       <c r="B279">
         <v>278</v>
       </c>
       <c r="C279" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="D279" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="E279" t="s">
         <v>179</v>
@@ -7576,16 +7563,16 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280">
-        <v>210919</v>
+        <v>220810</v>
       </c>
       <c r="B280">
         <v>279</v>
       </c>
       <c r="C280" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D280" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="E280" t="s">
         <v>179</v>
@@ -7593,16 +7580,16 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281">
-        <v>210919</v>
+        <v>220810</v>
       </c>
       <c r="B281">
         <v>280</v>
       </c>
       <c r="C281" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D281" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="E281" t="s">
         <v>179</v>
@@ -7610,16 +7597,16 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282">
-        <v>210919</v>
+        <v>220812</v>
       </c>
       <c r="B282">
         <v>281</v>
       </c>
       <c r="C282" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="D282" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="E282" t="s">
         <v>179</v>
@@ -7627,16 +7614,16 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283">
-        <v>210919</v>
+        <v>220812</v>
       </c>
       <c r="B283">
         <v>282</v>
       </c>
       <c r="C283" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="D283" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="E283" t="s">
         <v>179</v>
@@ -7644,16 +7631,16 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284">
-        <v>220428</v>
+        <v>220812</v>
       </c>
       <c r="B284">
         <v>283</v>
       </c>
       <c r="C284" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="D284" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="E284" t="s">
         <v>179</v>
@@ -7661,16 +7648,16 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285">
-        <v>220428</v>
+        <v>220812</v>
       </c>
       <c r="B285">
         <v>284</v>
       </c>
       <c r="C285" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="D285" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="E285" t="s">
         <v>179</v>
@@ -7678,16 +7665,16 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286">
-        <v>220529</v>
+        <v>220812</v>
       </c>
       <c r="B286">
         <v>285</v>
       </c>
       <c r="C286" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D286" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="E286" t="s">
         <v>179</v>
@@ -7695,16 +7682,16 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287">
-        <v>220529</v>
+        <v>220812</v>
       </c>
       <c r="B287">
         <v>286</v>
       </c>
       <c r="C287" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D287" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="E287" t="s">
         <v>179</v>
@@ -7712,16 +7699,16 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288">
-        <v>220529</v>
+        <v>220812</v>
       </c>
       <c r="B288">
         <v>287</v>
       </c>
       <c r="C288" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D288" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="E288" t="s">
         <v>179</v>
@@ -7729,16 +7716,16 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289">
-        <v>220529</v>
+        <v>220924</v>
       </c>
       <c r="B289">
         <v>288</v>
       </c>
       <c r="C289" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="D289" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="E289" t="s">
         <v>179</v>
@@ -7746,16 +7733,16 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290">
-        <v>220529</v>
+        <v>230105</v>
       </c>
       <c r="B290">
         <v>289</v>
       </c>
       <c r="C290" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="D290" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="E290" t="s">
         <v>179</v>
@@ -7763,16 +7750,16 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291">
-        <v>220810</v>
+        <v>230317</v>
       </c>
       <c r="B291">
         <v>290</v>
       </c>
       <c r="C291" t="s">
-        <v>116</v>
+        <v>656</v>
       </c>
       <c r="D291" t="s">
-        <v>388</v>
+        <v>582</v>
       </c>
       <c r="E291" t="s">
         <v>179</v>
@@ -7780,16 +7767,16 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292">
-        <v>220810</v>
+        <v>230317</v>
       </c>
       <c r="B292">
         <v>291</v>
       </c>
       <c r="C292" t="s">
-        <v>116</v>
+        <v>657</v>
       </c>
       <c r="D292" t="s">
-        <v>389</v>
+        <v>583</v>
       </c>
       <c r="E292" t="s">
         <v>179</v>
@@ -7797,16 +7784,16 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293">
-        <v>220810</v>
+        <v>230317</v>
       </c>
       <c r="B293">
         <v>292</v>
       </c>
       <c r="C293" t="s">
-        <v>116</v>
+        <v>657</v>
       </c>
       <c r="D293" t="s">
-        <v>390</v>
+        <v>584</v>
       </c>
       <c r="E293" t="s">
         <v>179</v>
@@ -7814,16 +7801,16 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294">
-        <v>220810</v>
+        <v>230317</v>
       </c>
       <c r="B294">
         <v>293</v>
       </c>
       <c r="C294" t="s">
-        <v>116</v>
+        <v>657</v>
       </c>
       <c r="D294" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E294" t="s">
         <v>179</v>
@@ -7831,16 +7818,16 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295">
-        <v>220810</v>
+        <v>230317</v>
       </c>
       <c r="B295">
         <v>294</v>
       </c>
       <c r="C295" t="s">
-        <v>116</v>
+        <v>657</v>
       </c>
       <c r="D295" t="s">
-        <v>392</v>
+        <v>586</v>
       </c>
       <c r="E295" t="s">
         <v>179</v>
@@ -7848,16 +7835,16 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296">
-        <v>220810</v>
+        <v>230317</v>
       </c>
       <c r="B296">
         <v>295</v>
       </c>
       <c r="C296" t="s">
-        <v>117</v>
+        <v>657</v>
       </c>
       <c r="D296" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
       <c r="E296" t="s">
         <v>179</v>
@@ -7865,172 +7852,172 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297">
-        <v>220810</v>
+        <v>221008</v>
       </c>
       <c r="B297">
         <v>296</v>
       </c>
       <c r="C297" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D297" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="E297" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298">
-        <v>220812</v>
+        <v>221008</v>
       </c>
       <c r="B298">
         <v>297</v>
       </c>
       <c r="C298" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D298" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="E298" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299">
-        <v>220812</v>
+        <v>221008</v>
       </c>
       <c r="B299">
         <v>298</v>
       </c>
       <c r="C299" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D299" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="E299" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300">
-        <v>220812</v>
+        <v>221008</v>
       </c>
       <c r="B300">
         <v>299</v>
       </c>
       <c r="C300" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D300" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="E300" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301">
-        <v>220812</v>
+        <v>221008</v>
       </c>
       <c r="B301">
         <v>300</v>
       </c>
       <c r="C301" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D301" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="E301" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302">
-        <v>220812</v>
+        <v>221008</v>
       </c>
       <c r="B302">
         <v>301</v>
       </c>
       <c r="C302" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D302" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E302" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303">
-        <v>220812</v>
+        <v>221008</v>
       </c>
       <c r="B303">
         <v>302</v>
       </c>
       <c r="C303" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D303" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="E303" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304">
-        <v>220812</v>
+        <v>221008</v>
       </c>
       <c r="B304">
         <v>303</v>
       </c>
       <c r="C304" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D304" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E304" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305">
-        <v>220924</v>
+        <v>221008</v>
       </c>
       <c r="B305">
         <v>304</v>
       </c>
       <c r="C305" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D305" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="E305" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306">
-        <v>230105</v>
+        <v>221008</v>
       </c>
       <c r="B306">
         <v>305</v>
       </c>
       <c r="C306" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D306" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="E306" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8041,10 +8028,10 @@
         <v>306</v>
       </c>
       <c r="C307" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D307" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="E307" t="s">
         <v>176</v>
@@ -8058,10 +8045,10 @@
         <v>307</v>
       </c>
       <c r="C308" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D308" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="E308" t="s">
         <v>176</v>
@@ -8075,10 +8062,10 @@
         <v>308</v>
       </c>
       <c r="C309" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D309" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="E309" t="s">
         <v>176</v>
@@ -8092,10 +8079,10 @@
         <v>309</v>
       </c>
       <c r="C310" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D310" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="E310" t="s">
         <v>176</v>
@@ -8109,10 +8096,10 @@
         <v>310</v>
       </c>
       <c r="C311" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D311" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="E311" t="s">
         <v>176</v>
@@ -8126,10 +8113,10 @@
         <v>311</v>
       </c>
       <c r="C312" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D312" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="E312" t="s">
         <v>176</v>
@@ -8143,10 +8130,10 @@
         <v>312</v>
       </c>
       <c r="C313" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D313" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="E313" t="s">
         <v>176</v>
@@ -8160,10 +8147,10 @@
         <v>313</v>
       </c>
       <c r="C314" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D314" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="E314" t="s">
         <v>176</v>
@@ -8177,10 +8164,10 @@
         <v>314</v>
       </c>
       <c r="C315" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D315" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="E315" t="s">
         <v>176</v>
@@ -8194,10 +8181,10 @@
         <v>315</v>
       </c>
       <c r="C316" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D316" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="E316" t="s">
         <v>176</v>
@@ -8211,10 +8198,10 @@
         <v>316</v>
       </c>
       <c r="C317" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D317" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E317" t="s">
         <v>176</v>
@@ -8228,10 +8215,10 @@
         <v>317</v>
       </c>
       <c r="C318" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D318" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="E318" t="s">
         <v>176</v>
@@ -8245,10 +8232,10 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D319" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="E319" t="s">
         <v>176</v>
@@ -8262,10 +8249,10 @@
         <v>319</v>
       </c>
       <c r="C320" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D320" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="E320" t="s">
         <v>176</v>
@@ -8279,10 +8266,10 @@
         <v>320</v>
       </c>
       <c r="C321" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D321" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="E321" t="s">
         <v>176</v>
@@ -8296,10 +8283,10 @@
         <v>321</v>
       </c>
       <c r="C322" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D322" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="E322" t="s">
         <v>176</v>
@@ -8313,10 +8300,10 @@
         <v>322</v>
       </c>
       <c r="C323" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D323" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="E323" t="s">
         <v>176</v>
@@ -8330,10 +8317,10 @@
         <v>323</v>
       </c>
       <c r="C324" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D324" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="E324" t="s">
         <v>176</v>
@@ -8347,10 +8334,10 @@
         <v>324</v>
       </c>
       <c r="C325" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D325" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E325" t="s">
         <v>176</v>
@@ -8364,10 +8351,10 @@
         <v>325</v>
       </c>
       <c r="C326" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D326" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="E326" t="s">
         <v>176</v>
@@ -8375,16 +8362,16 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327">
-        <v>221008</v>
+        <v>221009</v>
       </c>
       <c r="B327">
         <v>326</v>
       </c>
       <c r="C327" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D327" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="E327" t="s">
         <v>176</v>
@@ -8392,16 +8379,16 @@
     </row>
     <row r="328" spans="1:5">
       <c r="A328">
-        <v>221008</v>
+        <v>221009</v>
       </c>
       <c r="B328">
         <v>327</v>
       </c>
       <c r="C328" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D328" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="E328" t="s">
         <v>176</v>
@@ -8409,16 +8396,16 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329">
-        <v>221008</v>
+        <v>221009</v>
       </c>
       <c r="B329">
         <v>328</v>
       </c>
       <c r="C329" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D329" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="E329" t="s">
         <v>176</v>
@@ -8426,16 +8413,16 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330">
-        <v>221008</v>
+        <v>221009</v>
       </c>
       <c r="B330">
         <v>329</v>
       </c>
       <c r="C330" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D330" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="E330" t="s">
         <v>176</v>
@@ -8443,16 +8430,16 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331">
-        <v>221008</v>
+        <v>221009</v>
       </c>
       <c r="B331">
         <v>330</v>
       </c>
       <c r="C331" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D331" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="E331" t="s">
         <v>176</v>
@@ -8460,16 +8447,16 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332">
-        <v>221008</v>
+        <v>221009</v>
       </c>
       <c r="B332">
         <v>331</v>
       </c>
       <c r="C332" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D332" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="E332" t="s">
         <v>176</v>
@@ -8477,16 +8464,16 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333">
-        <v>221008</v>
+        <v>221009</v>
       </c>
       <c r="B333">
         <v>332</v>
       </c>
       <c r="C333" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D333" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="E333" t="s">
         <v>176</v>
@@ -8494,16 +8481,16 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334">
-        <v>221008</v>
+        <v>221009</v>
       </c>
       <c r="B334">
         <v>333</v>
       </c>
       <c r="C334" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D334" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="E334" t="s">
         <v>176</v>
@@ -8511,16 +8498,16 @@
     </row>
     <row r="335" spans="1:5">
       <c r="A335">
-        <v>221008</v>
+        <v>221009</v>
       </c>
       <c r="B335">
         <v>334</v>
       </c>
       <c r="C335" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D335" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="E335" t="s">
         <v>176</v>
@@ -8528,16 +8515,16 @@
     </row>
     <row r="336" spans="1:5">
       <c r="A336">
-        <v>221008</v>
+        <v>221009</v>
       </c>
       <c r="B336">
         <v>335</v>
       </c>
       <c r="C336" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D336" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="E336" t="s">
         <v>176</v>
@@ -8551,10 +8538,10 @@
         <v>336</v>
       </c>
       <c r="C337" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D337" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="E337" t="s">
         <v>176</v>
@@ -8562,16 +8549,16 @@
     </row>
     <row r="338" spans="1:5">
       <c r="A338">
-        <v>221009</v>
+        <v>221010</v>
       </c>
       <c r="B338">
         <v>337</v>
       </c>
       <c r="C338" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D338" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="E338" t="s">
         <v>176</v>
@@ -8579,16 +8566,16 @@
     </row>
     <row r="339" spans="1:5">
       <c r="A339">
-        <v>221009</v>
+        <v>221010</v>
       </c>
       <c r="B339">
         <v>338</v>
       </c>
       <c r="C339" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D339" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="E339" t="s">
         <v>176</v>
@@ -8596,16 +8583,16 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340">
-        <v>221009</v>
+        <v>221010</v>
       </c>
       <c r="B340">
         <v>339</v>
       </c>
       <c r="C340" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D340" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E340" t="s">
         <v>176</v>
@@ -8613,16 +8600,16 @@
     </row>
     <row r="341" spans="1:5">
       <c r="A341">
-        <v>221009</v>
+        <v>221010</v>
       </c>
       <c r="B341">
         <v>340</v>
       </c>
       <c r="C341" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D341" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="E341" t="s">
         <v>176</v>
@@ -8630,16 +8617,16 @@
     </row>
     <row r="342" spans="1:5">
       <c r="A342">
-        <v>221009</v>
+        <v>221010</v>
       </c>
       <c r="B342">
         <v>341</v>
       </c>
       <c r="C342" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D342" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="E342" t="s">
         <v>176</v>
@@ -8647,172 +8634,172 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343">
-        <v>221009</v>
+        <v>200919</v>
       </c>
       <c r="B343">
         <v>342</v>
       </c>
       <c r="C343" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="D343" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E343" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344">
-        <v>221009</v>
+        <v>200919</v>
       </c>
       <c r="B344">
         <v>343</v>
       </c>
       <c r="C344" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D344" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="E344" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345">
-        <v>221009</v>
+        <v>200919</v>
       </c>
       <c r="B345">
         <v>344</v>
       </c>
       <c r="C345" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D345" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="E345" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346">
-        <v>221009</v>
+        <v>200919</v>
       </c>
       <c r="B346">
         <v>345</v>
       </c>
       <c r="C346" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D346" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="E346" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347">
-        <v>221009</v>
+        <v>200919</v>
       </c>
       <c r="B347">
         <v>346</v>
       </c>
       <c r="C347" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="D347" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="E347" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348">
-        <v>221010</v>
+        <v>200919</v>
       </c>
       <c r="B348">
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="D348" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="E348" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349">
-        <v>221010</v>
+        <v>200919</v>
       </c>
       <c r="B349">
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="D349" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="E349" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350">
-        <v>221010</v>
+        <v>200919</v>
       </c>
       <c r="B350">
         <v>349</v>
       </c>
       <c r="C350" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="D350" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E350" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351">
-        <v>221010</v>
+        <v>200919</v>
       </c>
       <c r="B351">
         <v>350</v>
       </c>
       <c r="C351" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="D351" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E351" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352">
-        <v>221010</v>
+        <v>200919</v>
       </c>
       <c r="B352">
         <v>351</v>
       </c>
       <c r="C352" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="D352" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="E352" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8823,10 +8810,10 @@
         <v>352</v>
       </c>
       <c r="C353" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D353" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="E353" t="s">
         <v>178</v>
@@ -8840,10 +8827,10 @@
         <v>353</v>
       </c>
       <c r="C354" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D354" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="E354" t="s">
         <v>178</v>
@@ -8857,10 +8844,10 @@
         <v>354</v>
       </c>
       <c r="C355" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D355" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="E355" t="s">
         <v>178</v>
@@ -8868,16 +8855,16 @@
     </row>
     <row r="356" spans="1:5">
       <c r="A356">
-        <v>200919</v>
+        <v>200920</v>
       </c>
       <c r="B356">
         <v>355</v>
       </c>
       <c r="C356" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D356" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="E356" t="s">
         <v>178</v>
@@ -8885,16 +8872,16 @@
     </row>
     <row r="357" spans="1:5">
       <c r="A357">
-        <v>200919</v>
+        <v>200920</v>
       </c>
       <c r="B357">
         <v>356</v>
       </c>
       <c r="C357" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D357" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E357" t="s">
         <v>178</v>
@@ -8902,16 +8889,16 @@
     </row>
     <row r="358" spans="1:5">
       <c r="A358">
-        <v>200919</v>
+        <v>200920</v>
       </c>
       <c r="B358">
         <v>357</v>
       </c>
       <c r="C358" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D358" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="E358" t="s">
         <v>178</v>
@@ -8919,16 +8906,16 @@
     </row>
     <row r="359" spans="1:5">
       <c r="A359">
-        <v>200919</v>
+        <v>200920</v>
       </c>
       <c r="B359">
         <v>358</v>
       </c>
       <c r="C359" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D359" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="E359" t="s">
         <v>178</v>
@@ -8936,16 +8923,16 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360">
-        <v>200919</v>
+        <v>200920</v>
       </c>
       <c r="B360">
         <v>359</v>
       </c>
       <c r="C360" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D360" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="E360" t="s">
         <v>178</v>
@@ -8953,16 +8940,16 @@
     </row>
     <row r="361" spans="1:5">
       <c r="A361">
-        <v>200919</v>
+        <v>200920</v>
       </c>
       <c r="B361">
         <v>360</v>
       </c>
       <c r="C361" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D361" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="E361" t="s">
         <v>178</v>
@@ -8970,16 +8957,16 @@
     </row>
     <row r="362" spans="1:5">
       <c r="A362">
-        <v>200919</v>
+        <v>200920</v>
       </c>
       <c r="B362">
         <v>361</v>
       </c>
       <c r="C362" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D362" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E362" t="s">
         <v>178</v>
@@ -8987,16 +8974,16 @@
     </row>
     <row r="363" spans="1:5">
       <c r="A363">
-        <v>200919</v>
+        <v>200920</v>
       </c>
       <c r="B363">
         <v>362</v>
       </c>
       <c r="C363" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D363" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="E363" t="s">
         <v>178</v>
@@ -9004,16 +8991,16 @@
     </row>
     <row r="364" spans="1:5">
       <c r="A364">
-        <v>200919</v>
+        <v>220814</v>
       </c>
       <c r="B364">
         <v>363</v>
       </c>
       <c r="C364" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="D364" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="E364" t="s">
         <v>178</v>
@@ -9021,16 +9008,16 @@
     </row>
     <row r="365" spans="1:5">
       <c r="A365">
-        <v>200919</v>
+        <v>220922</v>
       </c>
       <c r="B365">
         <v>364</v>
       </c>
       <c r="C365" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="D365" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="E365" t="s">
         <v>178</v>
@@ -9038,16 +9025,16 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366">
-        <v>200920</v>
+        <v>220922</v>
       </c>
       <c r="B366">
         <v>365</v>
       </c>
       <c r="C366" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="D366" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="E366" t="s">
         <v>178</v>
@@ -9055,16 +9042,16 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367">
-        <v>200920</v>
+        <v>220922</v>
       </c>
       <c r="B367">
         <v>366</v>
       </c>
       <c r="C367" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="D367" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="E367" t="s">
         <v>178</v>
@@ -9072,16 +9059,16 @@
     </row>
     <row r="368" spans="1:5">
       <c r="A368">
-        <v>200920</v>
+        <v>220922</v>
       </c>
       <c r="B368">
         <v>367</v>
       </c>
       <c r="C368" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="D368" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="E368" t="s">
         <v>178</v>
@@ -9089,16 +9076,16 @@
     </row>
     <row r="369" spans="1:5">
       <c r="A369">
-        <v>200920</v>
+        <v>220922</v>
       </c>
       <c r="B369">
         <v>368</v>
       </c>
       <c r="C369" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="D369" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="E369" t="s">
         <v>178</v>
@@ -9106,16 +9093,16 @@
     </row>
     <row r="370" spans="1:5">
       <c r="A370">
-        <v>200920</v>
+        <v>220922</v>
       </c>
       <c r="B370">
         <v>369</v>
       </c>
       <c r="C370" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="D370" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="E370" t="s">
         <v>178</v>
@@ -9123,16 +9110,16 @@
     </row>
     <row r="371" spans="1:5">
       <c r="A371">
-        <v>200920</v>
+        <v>220922</v>
       </c>
       <c r="B371">
         <v>370</v>
       </c>
       <c r="C371" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="D371" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="E371" t="s">
         <v>178</v>
@@ -9140,16 +9127,16 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372">
-        <v>200920</v>
+        <v>220922</v>
       </c>
       <c r="B372">
         <v>371</v>
       </c>
       <c r="C372" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="D372" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E372" t="s">
         <v>178</v>
@@ -9157,16 +9144,16 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373">
-        <v>200920</v>
+        <v>220922</v>
       </c>
       <c r="B373">
         <v>372</v>
       </c>
       <c r="C373" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="D373" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="E373" t="s">
         <v>178</v>
@@ -9174,16 +9161,16 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374">
-        <v>220814</v>
+        <v>220922</v>
       </c>
       <c r="B374">
         <v>373</v>
       </c>
       <c r="C374" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D374" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E374" t="s">
         <v>178</v>
@@ -9197,10 +9184,10 @@
         <v>374</v>
       </c>
       <c r="C375" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D375" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="E375" t="s">
         <v>178</v>
@@ -9214,10 +9201,10 @@
         <v>375</v>
       </c>
       <c r="C376" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D376" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="E376" t="s">
         <v>178</v>
@@ -9231,10 +9218,10 @@
         <v>376</v>
       </c>
       <c r="C377" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D377" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="E377" t="s">
         <v>178</v>
@@ -9242,16 +9229,16 @@
     </row>
     <row r="378" spans="1:5">
       <c r="A378">
-        <v>220922</v>
+        <v>220923</v>
       </c>
       <c r="B378">
         <v>377</v>
       </c>
       <c r="C378" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D378" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="E378" t="s">
         <v>178</v>
@@ -9259,16 +9246,16 @@
     </row>
     <row r="379" spans="1:5">
       <c r="A379">
-        <v>220922</v>
+        <v>220923</v>
       </c>
       <c r="B379">
         <v>378</v>
       </c>
       <c r="C379" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D379" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="E379" t="s">
         <v>178</v>
@@ -9276,16 +9263,16 @@
     </row>
     <row r="380" spans="1:5">
       <c r="A380">
-        <v>220922</v>
+        <v>220923</v>
       </c>
       <c r="B380">
         <v>379</v>
       </c>
       <c r="C380" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D380" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="E380" t="s">
         <v>178</v>
@@ -9293,16 +9280,16 @@
     </row>
     <row r="381" spans="1:5">
       <c r="A381">
-        <v>220922</v>
+        <v>220923</v>
       </c>
       <c r="B381">
         <v>380</v>
       </c>
       <c r="C381" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D381" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="E381" t="s">
         <v>178</v>
@@ -9310,16 +9297,16 @@
     </row>
     <row r="382" spans="1:5">
       <c r="A382">
-        <v>220922</v>
+        <v>220923</v>
       </c>
       <c r="B382">
         <v>381</v>
       </c>
       <c r="C382" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D382" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="E382" t="s">
         <v>178</v>
@@ -9327,16 +9314,16 @@
     </row>
     <row r="383" spans="1:5">
       <c r="A383">
-        <v>220922</v>
+        <v>220923</v>
       </c>
       <c r="B383">
         <v>382</v>
       </c>
       <c r="C383" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D383" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="E383" t="s">
         <v>178</v>
@@ -9344,16 +9331,16 @@
     </row>
     <row r="384" spans="1:5">
       <c r="A384">
-        <v>220922</v>
+        <v>220923</v>
       </c>
       <c r="B384">
         <v>383</v>
       </c>
       <c r="C384" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D384" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="E384" t="s">
         <v>178</v>
@@ -9361,16 +9348,16 @@
     </row>
     <row r="385" spans="1:5">
       <c r="A385">
-        <v>220922</v>
+        <v>220923</v>
       </c>
       <c r="B385">
         <v>384</v>
       </c>
       <c r="C385" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D385" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="E385" t="s">
         <v>178</v>
@@ -9378,16 +9365,16 @@
     </row>
     <row r="386" spans="1:5">
       <c r="A386">
-        <v>220922</v>
+        <v>220923</v>
       </c>
       <c r="B386">
         <v>385</v>
       </c>
       <c r="C386" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D386" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="E386" t="s">
         <v>178</v>
@@ -9395,16 +9382,16 @@
     </row>
     <row r="387" spans="1:5">
       <c r="A387">
-        <v>220922</v>
+        <v>220923</v>
       </c>
       <c r="B387">
         <v>386</v>
       </c>
       <c r="C387" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D387" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="E387" t="s">
         <v>178</v>
@@ -9418,10 +9405,10 @@
         <v>387</v>
       </c>
       <c r="C388" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D388" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="E388" t="s">
         <v>178</v>
@@ -9435,10 +9422,10 @@
         <v>388</v>
       </c>
       <c r="C389" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D389" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="E389" t="s">
         <v>178</v>
@@ -9452,10 +9439,10 @@
         <v>389</v>
       </c>
       <c r="C390" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D390" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="E390" t="s">
         <v>178</v>
@@ -9469,10 +9456,10 @@
         <v>390</v>
       </c>
       <c r="C391" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D391" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="E391" t="s">
         <v>178</v>
@@ -9486,10 +9473,10 @@
         <v>391</v>
       </c>
       <c r="C392" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D392" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="E392" t="s">
         <v>178</v>
@@ -9497,16 +9484,16 @@
     </row>
     <row r="393" spans="1:5">
       <c r="A393">
-        <v>220923</v>
+        <v>220924</v>
       </c>
       <c r="B393">
         <v>392</v>
       </c>
       <c r="C393" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D393" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="E393" t="s">
         <v>178</v>
@@ -9514,16 +9501,16 @@
     </row>
     <row r="394" spans="1:5">
       <c r="A394">
-        <v>220923</v>
+        <v>220924</v>
       </c>
       <c r="B394">
         <v>393</v>
       </c>
       <c r="C394" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D394" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="E394" t="s">
         <v>178</v>
@@ -9531,16 +9518,16 @@
     </row>
     <row r="395" spans="1:5">
       <c r="A395">
-        <v>220923</v>
+        <v>220924</v>
       </c>
       <c r="B395">
         <v>394</v>
       </c>
       <c r="C395" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D395" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="E395" t="s">
         <v>178</v>
@@ -9548,16 +9535,16 @@
     </row>
     <row r="396" spans="1:5">
       <c r="A396">
-        <v>220923</v>
+        <v>220924</v>
       </c>
       <c r="B396">
         <v>395</v>
       </c>
       <c r="C396" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D396" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="E396" t="s">
         <v>178</v>
@@ -9565,16 +9552,16 @@
     </row>
     <row r="397" spans="1:5">
       <c r="A397">
-        <v>220923</v>
+        <v>220924</v>
       </c>
       <c r="B397">
         <v>396</v>
       </c>
       <c r="C397" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D397" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="E397" t="s">
         <v>178</v>
@@ -9582,16 +9569,16 @@
     </row>
     <row r="398" spans="1:5">
       <c r="A398">
-        <v>220923</v>
+        <v>220924</v>
       </c>
       <c r="B398">
         <v>397</v>
       </c>
       <c r="C398" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D398" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="E398" t="s">
         <v>178</v>
@@ -9599,16 +9586,16 @@
     </row>
     <row r="399" spans="1:5">
       <c r="A399">
-        <v>220923</v>
+        <v>220924</v>
       </c>
       <c r="B399">
         <v>398</v>
       </c>
       <c r="C399" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D399" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="E399" t="s">
         <v>178</v>
@@ -9616,16 +9603,16 @@
     </row>
     <row r="400" spans="1:5">
       <c r="A400">
-        <v>220923</v>
+        <v>220924</v>
       </c>
       <c r="B400">
         <v>399</v>
       </c>
       <c r="C400" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D400" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="E400" t="s">
         <v>178</v>
@@ -9633,16 +9620,16 @@
     </row>
     <row r="401" spans="1:5">
       <c r="A401">
-        <v>220923</v>
+        <v>220924</v>
       </c>
       <c r="B401">
         <v>400</v>
       </c>
       <c r="C401" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D401" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="E401" t="s">
         <v>178</v>
@@ -9650,16 +9637,16 @@
     </row>
     <row r="402" spans="1:5">
       <c r="A402">
-        <v>220923</v>
+        <v>230320</v>
       </c>
       <c r="B402">
         <v>401</v>
       </c>
       <c r="C402" t="s">
-        <v>104</v>
+        <v>692</v>
       </c>
       <c r="D402" t="s">
-        <v>499</v>
+        <v>654</v>
       </c>
       <c r="E402" t="s">
         <v>178</v>
@@ -9667,16 +9654,16 @@
     </row>
     <row r="403" spans="1:5">
       <c r="A403">
-        <v>220924</v>
+        <v>230320</v>
       </c>
       <c r="B403">
         <v>402</v>
       </c>
       <c r="C403" t="s">
-        <v>92</v>
+        <v>692</v>
       </c>
       <c r="D403" t="s">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="E403" t="s">
         <v>178</v>
@@ -9684,16 +9671,16 @@
     </row>
     <row r="404" spans="1:5">
       <c r="A404">
-        <v>220924</v>
+        <v>230321</v>
       </c>
       <c r="B404">
         <v>403</v>
       </c>
-      <c r="C404" t="s">
-        <v>92</v>
+      <c r="C404" s="3" t="s">
+        <v>699</v>
       </c>
       <c r="D404" t="s">
-        <v>501</v>
+        <v>693</v>
       </c>
       <c r="E404" t="s">
         <v>178</v>
@@ -9701,16 +9688,16 @@
     </row>
     <row r="405" spans="1:5">
       <c r="A405">
-        <v>220924</v>
+        <v>230321</v>
       </c>
       <c r="B405">
         <v>404</v>
       </c>
-      <c r="C405" t="s">
-        <v>93</v>
+      <c r="C405" s="3" t="s">
+        <v>700</v>
       </c>
       <c r="D405" t="s">
-        <v>502</v>
+        <v>694</v>
       </c>
       <c r="E405" t="s">
         <v>178</v>
@@ -9718,16 +9705,16 @@
     </row>
     <row r="406" spans="1:5">
       <c r="A406">
-        <v>220924</v>
+        <v>230321</v>
       </c>
       <c r="B406">
         <v>405</v>
       </c>
-      <c r="C406" t="s">
-        <v>94</v>
+      <c r="C406" s="3" t="s">
+        <v>701</v>
       </c>
       <c r="D406" t="s">
-        <v>503</v>
+        <v>695</v>
       </c>
       <c r="E406" t="s">
         <v>178</v>
@@ -9735,16 +9722,16 @@
     </row>
     <row r="407" spans="1:5">
       <c r="A407">
-        <v>220924</v>
+        <v>230321</v>
       </c>
       <c r="B407">
         <v>406</v>
       </c>
-      <c r="C407" t="s">
-        <v>94</v>
+      <c r="C407" s="3" t="s">
+        <v>702</v>
       </c>
       <c r="D407" t="s">
-        <v>504</v>
+        <v>696</v>
       </c>
       <c r="E407" t="s">
         <v>178</v>
@@ -9752,16 +9739,16 @@
     </row>
     <row r="408" spans="1:5">
       <c r="A408">
-        <v>220924</v>
+        <v>230321</v>
       </c>
       <c r="B408">
         <v>407</v>
       </c>
-      <c r="C408" t="s">
-        <v>94</v>
+      <c r="C408" s="3" t="s">
+        <v>703</v>
       </c>
       <c r="D408" t="s">
-        <v>505</v>
+        <v>697</v>
       </c>
       <c r="E408" t="s">
         <v>178</v>
@@ -9769,16 +9756,16 @@
     </row>
     <row r="409" spans="1:5">
       <c r="A409">
-        <v>220924</v>
+        <v>230321</v>
       </c>
       <c r="B409">
         <v>408</v>
       </c>
-      <c r="C409" t="s">
-        <v>95</v>
+      <c r="C409" s="3" t="s">
+        <v>703</v>
       </c>
       <c r="D409" t="s">
-        <v>506</v>
+        <v>698</v>
       </c>
       <c r="E409" t="s">
         <v>178</v>
@@ -9786,50 +9773,50 @@
     </row>
     <row r="410" spans="1:5">
       <c r="A410">
-        <v>220924</v>
+        <v>170220</v>
       </c>
       <c r="B410">
         <v>409</v>
       </c>
       <c r="C410" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="D410" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E410" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411">
-        <v>220924</v>
+        <v>170220</v>
       </c>
       <c r="B411">
         <v>410</v>
       </c>
       <c r="C411" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="D411" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E411" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="412" spans="1:5">
       <c r="A412">
-        <v>170220</v>
+        <v>220430</v>
       </c>
       <c r="B412">
         <v>411</v>
       </c>
       <c r="C412" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="D412" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E412" t="s">
         <v>177</v>
@@ -9837,16 +9824,16 @@
     </row>
     <row r="413" spans="1:5">
       <c r="A413">
-        <v>170220</v>
+        <v>220430</v>
       </c>
       <c r="B413">
         <v>412</v>
       </c>
       <c r="C413" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="D413" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E413" t="s">
         <v>177</v>
@@ -9863,7 +9850,7 @@
         <v>141</v>
       </c>
       <c r="D414" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E414" t="s">
         <v>177</v>
@@ -9877,10 +9864,10 @@
         <v>414</v>
       </c>
       <c r="C415" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D415" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E415" t="s">
         <v>177</v>
@@ -9894,10 +9881,10 @@
         <v>415</v>
       </c>
       <c r="C416" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D416" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E416" t="s">
         <v>177</v>
@@ -9911,10 +9898,10 @@
         <v>416</v>
       </c>
       <c r="C417" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D417" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E417" t="s">
         <v>177</v>
@@ -9928,10 +9915,10 @@
         <v>417</v>
       </c>
       <c r="C418" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D418" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E418" t="s">
         <v>177</v>
@@ -9945,10 +9932,10 @@
         <v>418</v>
       </c>
       <c r="C419" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D419" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E419" t="s">
         <v>177</v>
@@ -9965,7 +9952,7 @@
         <v>145</v>
       </c>
       <c r="D420" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E420" t="s">
         <v>177</v>
@@ -9979,10 +9966,10 @@
         <v>420</v>
       </c>
       <c r="C421" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D421" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E421" t="s">
         <v>177</v>
@@ -9990,16 +9977,16 @@
     </row>
     <row r="422" spans="1:5">
       <c r="A422">
-        <v>220430</v>
+        <v>220501</v>
       </c>
       <c r="B422">
         <v>421</v>
       </c>
       <c r="C422" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D422" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E422" t="s">
         <v>177</v>
@@ -10007,16 +9994,16 @@
     </row>
     <row r="423" spans="1:5">
       <c r="A423">
-        <v>220430</v>
+        <v>220501</v>
       </c>
       <c r="B423">
         <v>422</v>
       </c>
       <c r="C423" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D423" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E423" t="s">
         <v>177</v>
@@ -10033,7 +10020,7 @@
         <v>140</v>
       </c>
       <c r="D424" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E424" t="s">
         <v>177</v>
@@ -10050,7 +10037,7 @@
         <v>140</v>
       </c>
       <c r="D425" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E425" t="s">
         <v>177</v>
@@ -10067,7 +10054,7 @@
         <v>140</v>
       </c>
       <c r="D426" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E426" t="s">
         <v>177</v>
@@ -10084,7 +10071,7 @@
         <v>140</v>
       </c>
       <c r="D427" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E427" t="s">
         <v>177</v>
@@ -10101,7 +10088,7 @@
         <v>140</v>
       </c>
       <c r="D428" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E428" t="s">
         <v>177</v>
@@ -10109,16 +10096,16 @@
     </row>
     <row r="429" spans="1:5">
       <c r="A429">
-        <v>220501</v>
+        <v>220716</v>
       </c>
       <c r="B429">
         <v>428</v>
       </c>
       <c r="C429" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D429" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E429" t="s">
         <v>177</v>
@@ -10126,16 +10113,16 @@
     </row>
     <row r="430" spans="1:5">
       <c r="A430">
-        <v>220501</v>
+        <v>220716</v>
       </c>
       <c r="B430">
         <v>429</v>
       </c>
       <c r="C430" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D430" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E430" t="s">
         <v>177</v>
@@ -10152,7 +10139,7 @@
         <v>131</v>
       </c>
       <c r="D431" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E431" t="s">
         <v>177</v>
@@ -10169,7 +10156,7 @@
         <v>131</v>
       </c>
       <c r="D432" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E432" t="s">
         <v>177</v>
@@ -10183,10 +10170,10 @@
         <v>432</v>
       </c>
       <c r="C433" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D433" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E433" t="s">
         <v>177</v>
@@ -10200,10 +10187,10 @@
         <v>433</v>
       </c>
       <c r="C434" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D434" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E434" t="s">
         <v>177</v>
@@ -10217,10 +10204,10 @@
         <v>434</v>
       </c>
       <c r="C435" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D435" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E435" t="s">
         <v>177</v>
@@ -10237,7 +10224,7 @@
         <v>133</v>
       </c>
       <c r="D436" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E436" t="s">
         <v>177</v>
@@ -10254,7 +10241,7 @@
         <v>133</v>
       </c>
       <c r="D437" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E437" t="s">
         <v>177</v>
@@ -10268,10 +10255,10 @@
         <v>437</v>
       </c>
       <c r="C438" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D438" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E438" t="s">
         <v>177</v>
@@ -10285,10 +10272,10 @@
         <v>438</v>
       </c>
       <c r="C439" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D439" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E439" t="s">
         <v>177</v>
@@ -10302,10 +10289,10 @@
         <v>439</v>
       </c>
       <c r="C440" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D440" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E440" t="s">
         <v>177</v>
@@ -10322,7 +10309,7 @@
         <v>135</v>
       </c>
       <c r="D441" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E441" t="s">
         <v>177</v>
@@ -10336,63 +10323,63 @@
         <v>441</v>
       </c>
       <c r="C442" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D442" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E442" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="443" spans="1:5">
-      <c r="A443">
-        <v>220716</v>
+      <c r="A443" s="1">
+        <v>220717</v>
       </c>
       <c r="B443">
         <v>442</v>
       </c>
-      <c r="C443" t="s">
-        <v>135</v>
+      <c r="C443" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D443" t="s">
-        <v>540</v>
-      </c>
-      <c r="E443" t="s">
+        <v>542</v>
+      </c>
+      <c r="E443" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="444" spans="1:5">
       <c r="A444">
-        <v>220716</v>
+        <v>220717</v>
       </c>
       <c r="B444">
         <v>443</v>
       </c>
       <c r="C444" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D444" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E444" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="445" spans="1:5">
-      <c r="A445" s="1">
+      <c r="A445">
         <v>220717</v>
       </c>
       <c r="B445">
         <v>444</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>127</v>
+      <c r="C445" t="s">
+        <v>126</v>
       </c>
       <c r="D445" t="s">
-        <v>542</v>
-      </c>
-      <c r="E445" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E445" t="s">
         <v>177</v>
       </c>
     </row>
@@ -10407,7 +10394,7 @@
         <v>126</v>
       </c>
       <c r="D446" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E446" t="s">
         <v>177</v>
@@ -10424,7 +10411,7 @@
         <v>126</v>
       </c>
       <c r="D447" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E447" t="s">
         <v>177</v>
@@ -10441,7 +10428,7 @@
         <v>126</v>
       </c>
       <c r="D448" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E448" t="s">
         <v>177</v>
@@ -10458,7 +10445,7 @@
         <v>126</v>
       </c>
       <c r="D449" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E449" t="s">
         <v>177</v>
@@ -10475,7 +10462,7 @@
         <v>126</v>
       </c>
       <c r="D450" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E450" t="s">
         <v>177</v>
@@ -10492,7 +10479,7 @@
         <v>126</v>
       </c>
       <c r="D451" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E451" t="s">
         <v>177</v>
@@ -10506,10 +10493,10 @@
         <v>451</v>
       </c>
       <c r="C452" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D452" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E452" t="s">
         <v>177</v>
@@ -10523,10 +10510,10 @@
         <v>452</v>
       </c>
       <c r="C453" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D453" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E453" t="s">
         <v>177</v>
@@ -10540,10 +10527,10 @@
         <v>453</v>
       </c>
       <c r="C454" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D454" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E454" t="s">
         <v>177</v>
@@ -10557,10 +10544,10 @@
         <v>454</v>
       </c>
       <c r="C455" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D455" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E455" t="s">
         <v>177</v>
@@ -10577,7 +10564,7 @@
         <v>128</v>
       </c>
       <c r="D456" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E456" t="s">
         <v>177</v>
@@ -10594,7 +10581,7 @@
         <v>128</v>
       </c>
       <c r="D457" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E457" t="s">
         <v>177</v>
@@ -10608,10 +10595,10 @@
         <v>457</v>
       </c>
       <c r="C458" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D458" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E458" t="s">
         <v>177</v>
@@ -10619,16 +10606,16 @@
     </row>
     <row r="459" spans="1:5">
       <c r="A459">
-        <v>220717</v>
+        <v>220718</v>
       </c>
       <c r="B459">
         <v>458</v>
       </c>
       <c r="C459" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D459" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E459" t="s">
         <v>177</v>
@@ -10636,16 +10623,16 @@
     </row>
     <row r="460" spans="1:5">
       <c r="A460">
-        <v>220717</v>
+        <v>220718</v>
       </c>
       <c r="B460">
         <v>459</v>
       </c>
       <c r="C460" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D460" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E460" t="s">
         <v>177</v>
@@ -10659,10 +10646,10 @@
         <v>460</v>
       </c>
       <c r="C461" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D461" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E461" t="s">
         <v>177</v>
@@ -10676,10 +10663,10 @@
         <v>461</v>
       </c>
       <c r="C462" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D462" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E462" t="s">
         <v>177</v>
@@ -10696,7 +10683,7 @@
         <v>121</v>
       </c>
       <c r="D463" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E463" t="s">
         <v>177</v>
@@ -10713,7 +10700,7 @@
         <v>121</v>
       </c>
       <c r="D464" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E464" t="s">
         <v>177</v>
@@ -10730,7 +10717,7 @@
         <v>121</v>
       </c>
       <c r="D465" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E465" t="s">
         <v>177</v>
@@ -10747,7 +10734,7 @@
         <v>121</v>
       </c>
       <c r="D466" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E466" t="s">
         <v>177</v>
@@ -10764,7 +10751,7 @@
         <v>121</v>
       </c>
       <c r="D467" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E467" t="s">
         <v>177</v>
@@ -10778,10 +10765,10 @@
         <v>467</v>
       </c>
       <c r="C468" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D468" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E468" t="s">
         <v>177</v>
@@ -10795,10 +10782,10 @@
         <v>468</v>
       </c>
       <c r="C469" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D469" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E469" t="s">
         <v>177</v>
@@ -10812,10 +10799,10 @@
         <v>469</v>
       </c>
       <c r="C470" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D470" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E470" t="s">
         <v>177</v>
@@ -10829,10 +10816,10 @@
         <v>470</v>
       </c>
       <c r="C471" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D471" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E471" t="s">
         <v>177</v>
@@ -10846,10 +10833,10 @@
         <v>471</v>
       </c>
       <c r="C472" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D472" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E472" t="s">
         <v>177</v>
@@ -10863,10 +10850,10 @@
         <v>472</v>
       </c>
       <c r="C473" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D473" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E473" t="s">
         <v>177</v>
@@ -10883,7 +10870,7 @@
         <v>124</v>
       </c>
       <c r="D474" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E474" t="s">
         <v>177</v>
@@ -10900,7 +10887,7 @@
         <v>124</v>
       </c>
       <c r="D475" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E475" t="s">
         <v>177</v>
@@ -10917,7 +10904,7 @@
         <v>124</v>
       </c>
       <c r="D476" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E476" t="s">
         <v>177</v>
@@ -10934,7 +10921,7 @@
         <v>124</v>
       </c>
       <c r="D477" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E477" t="s">
         <v>177</v>
@@ -10948,10 +10935,10 @@
         <v>477</v>
       </c>
       <c r="C478" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D478" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E478" t="s">
         <v>177</v>
@@ -10959,16 +10946,16 @@
     </row>
     <row r="479" spans="1:5">
       <c r="A479">
-        <v>220718</v>
+        <v>221010</v>
       </c>
       <c r="B479">
         <v>478</v>
       </c>
       <c r="C479" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D479" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E479" t="s">
         <v>177</v>
@@ -10976,16 +10963,16 @@
     </row>
     <row r="480" spans="1:5">
       <c r="A480">
-        <v>220718</v>
+        <v>221010</v>
       </c>
       <c r="B480">
         <v>479</v>
       </c>
       <c r="C480" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D480" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E480" t="s">
         <v>177</v>
@@ -11002,7 +10989,7 @@
         <v>74</v>
       </c>
       <c r="D481" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E481" t="s">
         <v>177</v>
@@ -11019,43 +11006,9 @@
         <v>74</v>
       </c>
       <c r="D482" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E482" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
-      <c r="A483">
-        <v>221010</v>
-      </c>
-      <c r="B483">
-        <v>482</v>
-      </c>
-      <c r="C483" t="s">
-        <v>74</v>
-      </c>
-      <c r="D483" t="s">
-        <v>580</v>
-      </c>
-      <c r="E483" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
-      <c r="A484">
-        <v>221010</v>
-      </c>
-      <c r="B484">
-        <v>483</v>
-      </c>
-      <c r="C484" t="s">
-        <v>74</v>
-      </c>
-      <c r="D484" t="s">
-        <v>581</v>
-      </c>
-      <c r="E484" t="s">
         <v>177</v>
       </c>
     </row>

--- a/lib/desc.xlsx
+++ b/lib/desc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zou/Pictures/hp/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317218FE-4D92-024C-BF0D-E5AD9B8CB93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01FC17B-20E1-824D-AAB4-7EA8DD175E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="28160" windowHeight="17500" xr2:uid="{D7964F23-ABE7-EE49-BC5D-F06BE24455A7}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">desc!$A$1:$E$483</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">desc!$A$1:$E$508</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="744">
   <si>
     <t>Column1</t>
   </si>
@@ -2350,12 +2350,520 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>New!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/230529_001.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_002.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_003.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_004.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_005.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_006.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_007.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_008.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_009.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_010.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_011.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_012.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_013.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_014.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_015.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_016.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_017.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_018.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_021.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_022.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_023.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_024.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_025.jepg</t>
+  </si>
+  <si>
+    <t>img/230529_020.jepg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/230529_019.jepg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修善寺駅あじ寿司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/230529_026.jepg</t>
+  </si>
+  <si>
+    <r>
+      <t>伊豆鉄道駿豆線</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> @ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静岡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 230529</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>日枝神社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> @ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静岡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 230529</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>夫婦杉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> @ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静岡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 230529</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>修善寺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> @ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静岡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 230529</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>禅寺そば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> @ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静岡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 230529</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ハリストス正教会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> @ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静岡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 230529</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>韮山反射炉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> @ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静岡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 230529</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>伊豆パノラマパークから天城山方面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> @ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静岡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 230529</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>伊豆パノラマパークから富士山方面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> @ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静岡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 230529</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>修善寺駅あじ寿司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> @ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静岡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 230529</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>うなぎ桜家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> @ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静岡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 230528</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>うなぎ桜家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> @ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静岡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HiraginoSans-W3"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 230528</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2382,6 +2890,12 @@
       <name val="Heiti SC"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2430,7 +2944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2444,6 +2958,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2478,7 +2995,7 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{651F2A5B-D8C8-924F-B251-5FDA81CA7BB8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="24">
+  <queryTableRefresh nextId="25">
     <queryTableFields count="5">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
@@ -2491,8 +3008,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDC279BC-F0B4-DB41-B43F-5ADB32EFCD14}" name="desc" displayName="desc" ref="A1:E483" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E483" xr:uid="{FDC279BC-F0B4-DB41-B43F-5ADB32EFCD14}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDC279BC-F0B4-DB41-B43F-5ADB32EFCD14}" name="desc" displayName="desc" ref="A1:E508" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E508" xr:uid="{FDC279BC-F0B4-DB41-B43F-5ADB32EFCD14}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E482">
     <sortCondition ref="E1:E482"/>
   </sortState>
@@ -2804,10 +3321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE225AC4-BA89-0F42-99D5-DB6EB635AE5D}">
-  <dimension ref="A1:E482"/>
+  <dimension ref="A1:E508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B479" workbookViewId="0">
+      <selection activeCell="D488" sqref="D488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -4451,19 +4968,19 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="4">
+      <c r="A97">
         <v>230318</v>
       </c>
       <c r="B97">
         <v>96</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" t="s">
         <v>669</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" t="s">
         <v>605</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" t="s">
         <v>180</v>
       </c>
     </row>
@@ -11010,6 +11527,448 @@
       </c>
       <c r="E482" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483">
+        <v>230528</v>
+      </c>
+      <c r="B483">
+        <v>482</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D483" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="E483" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484">
+        <v>230528</v>
+      </c>
+      <c r="B484">
+        <v>483</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D484" t="s">
+        <v>705</v>
+      </c>
+      <c r="E484" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485">
+        <v>230528</v>
+      </c>
+      <c r="B485">
+        <v>484</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D485" t="s">
+        <v>706</v>
+      </c>
+      <c r="E485" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486">
+        <v>230529</v>
+      </c>
+      <c r="B486">
+        <v>485</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="D486" t="s">
+        <v>708</v>
+      </c>
+      <c r="E486" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487">
+        <v>230529</v>
+      </c>
+      <c r="B487">
+        <v>486</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D487" t="s">
+        <v>709</v>
+      </c>
+      <c r="E487" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488">
+        <v>230529</v>
+      </c>
+      <c r="B488">
+        <v>487</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D488" t="s">
+        <v>710</v>
+      </c>
+      <c r="E488" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489">
+        <v>230529</v>
+      </c>
+      <c r="B489">
+        <v>488</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="D489" t="s">
+        <v>711</v>
+      </c>
+      <c r="E489" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490">
+        <v>230529</v>
+      </c>
+      <c r="B490">
+        <v>489</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D490" t="s">
+        <v>712</v>
+      </c>
+      <c r="E490" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491">
+        <v>230529</v>
+      </c>
+      <c r="B491">
+        <v>490</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D491" t="s">
+        <v>713</v>
+      </c>
+      <c r="E491" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492">
+        <v>230529</v>
+      </c>
+      <c r="B492">
+        <v>491</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D492" t="s">
+        <v>714</v>
+      </c>
+      <c r="E492" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493">
+        <v>230529</v>
+      </c>
+      <c r="B493">
+        <v>492</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D493" t="s">
+        <v>715</v>
+      </c>
+      <c r="E493" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494">
+        <v>230529</v>
+      </c>
+      <c r="B494">
+        <v>493</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D494" t="s">
+        <v>716</v>
+      </c>
+      <c r="E494" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495">
+        <v>230529</v>
+      </c>
+      <c r="B495">
+        <v>494</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D495" t="s">
+        <v>717</v>
+      </c>
+      <c r="E495" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496">
+        <v>230529</v>
+      </c>
+      <c r="B496">
+        <v>495</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D496" t="s">
+        <v>718</v>
+      </c>
+      <c r="E496" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497">
+        <v>230529</v>
+      </c>
+      <c r="B497">
+        <v>496</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D497" t="s">
+        <v>719</v>
+      </c>
+      <c r="E497" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498">
+        <v>230529</v>
+      </c>
+      <c r="B498">
+        <v>497</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D498" t="s">
+        <v>720</v>
+      </c>
+      <c r="E498" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499">
+        <v>230529</v>
+      </c>
+      <c r="B499">
+        <v>498</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D499" t="s">
+        <v>721</v>
+      </c>
+      <c r="E499" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500">
+        <v>230529</v>
+      </c>
+      <c r="B500">
+        <v>499</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D500" t="s">
+        <v>722</v>
+      </c>
+      <c r="E500" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501">
+        <v>230529</v>
+      </c>
+      <c r="B501">
+        <v>500</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="D501" t="s">
+        <v>728</v>
+      </c>
+      <c r="E501" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502">
+        <v>230529</v>
+      </c>
+      <c r="B502">
+        <v>501</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="D502" t="s">
+        <v>729</v>
+      </c>
+      <c r="E502" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503">
+        <v>230529</v>
+      </c>
+      <c r="B503">
+        <v>502</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="D503" t="s">
+        <v>723</v>
+      </c>
+      <c r="E503" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504">
+        <v>230529</v>
+      </c>
+      <c r="B504">
+        <v>503</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="D504" t="s">
+        <v>724</v>
+      </c>
+      <c r="E504" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505">
+        <v>230529</v>
+      </c>
+      <c r="B505">
+        <v>504</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="D505" t="s">
+        <v>725</v>
+      </c>
+      <c r="E505" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506">
+        <v>230529</v>
+      </c>
+      <c r="B506">
+        <v>505</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="D506" t="s">
+        <v>726</v>
+      </c>
+      <c r="E506" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507">
+        <v>230529</v>
+      </c>
+      <c r="B507">
+        <v>506</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D507" t="s">
+        <v>727</v>
+      </c>
+      <c r="E507" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508">
+        <v>230529</v>
+      </c>
+      <c r="B508">
+        <v>507</v>
+      </c>
+      <c r="C508" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="D508" t="s">
+        <v>731</v>
+      </c>
+      <c r="E508" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
